--- a/OFR数据统计-20231007.xlsx
+++ b/OFR数据统计-20231007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stone\python\coronary_ffr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F138BA-4545-468A-B69E-05AAE2A950E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C06258C-6F4D-4351-99F5-F4A3EAFFE71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>朱伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,34 @@
   </si>
   <si>
     <t>复现_删除异常数据_没有划分狭窄区域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现
+自己算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现
+主观判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现
+企业(无修正)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现
+企业(部分修正)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +324,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -368,8 +401,20 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,18 +429,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -439,17 +478,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -477,6 +505,109 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -491,13 +622,13 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -513,25 +644,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -543,43 +659,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -588,66 +674,27 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,95 +734,159 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1501,10 +1612,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="7">
@@ -1520,8 +1631,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="7">
         <v>0.85</v>
       </c>
@@ -1790,892 +1901,917 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" customWidth="1"/>
+    <col min="15" max="20" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="25" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="41" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-    </row>
-    <row r="2" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="58"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="P2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="Q2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="R2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="S2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="T2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    </row>
+    <row r="3" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="27">
         <v>0.48</v>
       </c>
-      <c r="C3" s="15">
-        <v>0.374755864551024</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="28">
+        <v>0.46288258341742999</v>
+      </c>
+      <c r="D3" s="29">
         <v>0.51123445923787603</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="29">
         <v>0.39720912952186999</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="29">
         <v>0.39720912952186999</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="29">
         <v>0.6</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="30">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <f>ABS(C3-$B3)/$B3</f>
-        <v>0.21925861551869996</v>
-      </c>
-      <c r="J3" s="15">
-        <f>ABS(D3-$B3)/$B3</f>
+        <v>3.5661284547020812E-2</v>
+      </c>
+      <c r="J3" s="31">
+        <f t="shared" ref="J3:N3" si="0">ABS(D3-$B3)/$B3</f>
         <v>6.5071790078908426E-2</v>
       </c>
-      <c r="K3" s="15">
-        <f>ABS(E3-$B3)/$B3</f>
+      <c r="K3" s="31">
+        <f t="shared" si="0"/>
         <v>0.17248098016277083</v>
       </c>
-      <c r="L3" s="15">
-        <f>ABS(F3-$B3)/$B3</f>
+      <c r="L3" s="31">
+        <f t="shared" si="0"/>
         <v>0.17248098016277083</v>
       </c>
-      <c r="M3" s="15">
-        <f>ABS(G3-$B3)/$B3</f>
+      <c r="M3" s="31">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="N3" s="33">
-        <f>ABS(H3-$B3)/$B3</f>
+      <c r="N3" s="31">
+        <f t="shared" si="0"/>
         <v>0.16666666666666682</v>
       </c>
-      <c r="O3" s="37">
-        <f>ABS(C3-$B3)</f>
-        <v>0.10524413544897598</v>
-      </c>
-      <c r="P3" s="23">
-        <f>ABS(D3-$B3)</f>
+      <c r="O3" s="44">
+        <f t="shared" ref="O3:T3" si="1">ABS(C3-$B3)</f>
+        <v>1.7117416582569989E-2</v>
+      </c>
+      <c r="P3" s="45">
+        <f t="shared" si="1"/>
         <v>3.1234459237876044E-2</v>
       </c>
-      <c r="Q3" s="23">
-        <f>ABS(E3-$B3)</f>
+      <c r="Q3" s="45">
+        <f t="shared" si="1"/>
         <v>8.2790870478129996E-2</v>
       </c>
-      <c r="R3" s="23">
-        <f>ABS(F3-$B3)</f>
+      <c r="R3" s="45">
+        <f t="shared" si="1"/>
         <v>8.2790870478129996E-2</v>
       </c>
-      <c r="S3" s="23">
-        <f>ABS(G3-$B3)</f>
+      <c r="S3" s="45">
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="T3" s="38">
-        <f>ABS(H3-$B3)</f>
+      <c r="T3" s="46">
+        <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="32">
         <v>0.76</v>
       </c>
-      <c r="C4" s="15">
-        <v>0.79130984840090202</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="33">
+        <v>0.84607282925571503</v>
+      </c>
+      <c r="D4" s="34">
         <v>0.77895063965551203</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="34">
         <v>0.692553002853875</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="34">
         <v>0.692553002853875</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="34">
         <v>0.74</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="35">
         <v>0.4</v>
       </c>
-      <c r="I4" s="32">
-        <f t="shared" ref="I4:I12" si="0">ABS(C4-$B4)/$B4</f>
-        <v>4.1197168948555275E-2</v>
-      </c>
-      <c r="J4" s="15">
-        <f>ABS(D4-$B4)/$B4</f>
+      <c r="I4" s="31">
+        <f t="shared" ref="I4:I12" si="2">ABS(C4-$B4)/$B4</f>
+        <v>0.11325372270488819</v>
+      </c>
+      <c r="J4" s="31">
+        <f t="shared" ref="J4:J12" si="3">ABS(D4-$B4)/$B4</f>
         <v>2.4935052178305297E-2</v>
       </c>
-      <c r="K4" s="15">
-        <f>ABS(E4-$B4)/$B4</f>
+      <c r="K4" s="31">
+        <f t="shared" ref="K4:K12" si="4">ABS(E4-$B4)/$B4</f>
         <v>8.8746048876480271E-2</v>
       </c>
-      <c r="L4" s="15">
-        <f>ABS(F4-$B4)/$B4</f>
+      <c r="L4" s="31">
+        <f t="shared" ref="L4:L12" si="5">ABS(F4-$B4)/$B4</f>
         <v>8.8746048876480271E-2</v>
       </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M12" si="1">ABS(G4-$B4)/$B4</f>
+      <c r="M4" s="31">
+        <f t="shared" ref="M4:M12" si="6">ABS(G4-$B4)/$B4</f>
         <v>2.6315789473684233E-2</v>
       </c>
-      <c r="N4" s="33">
-        <f>ABS(H4-$B4)/$B4</f>
+      <c r="N4" s="31">
+        <f t="shared" ref="N4:N12" si="7">ABS(H4-$B4)/$B4</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="O4" s="37">
-        <f t="shared" ref="O4:O12" si="2">ABS(C4-$B4)</f>
-        <v>3.1309848400902007E-2</v>
-      </c>
-      <c r="P4" s="23">
-        <f t="shared" ref="P4:P12" si="3">ABS(D4-$B4)</f>
+      <c r="O4" s="47">
+        <f t="shared" ref="O4:O12" si="8">ABS(C4-$B4)</f>
+        <v>8.6072829255715022E-2</v>
+      </c>
+      <c r="P4" s="48">
+        <f t="shared" ref="P4:P12" si="9">ABS(D4-$B4)</f>
         <v>1.8950639655512025E-2</v>
       </c>
-      <c r="Q4" s="23">
-        <f t="shared" ref="Q4:Q12" si="4">ABS(E4-$B4)</f>
+      <c r="Q4" s="48">
+        <f t="shared" ref="Q4:Q12" si="10">ABS(E4-$B4)</f>
         <v>6.744699714612501E-2</v>
       </c>
-      <c r="R4" s="23">
-        <f t="shared" ref="R4:R12" si="5">ABS(F4-$B4)</f>
+      <c r="R4" s="48">
+        <f t="shared" ref="R4:R12" si="11">ABS(F4-$B4)</f>
         <v>6.744699714612501E-2</v>
       </c>
-      <c r="S4" s="23">
-        <f t="shared" ref="S4:S12" si="6">ABS(G4-$B4)</f>
+      <c r="S4" s="48">
+        <f t="shared" ref="S4:S12" si="12">ABS(G4-$B4)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="49">
         <f>ABS(H4-$B4)</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="32">
         <v>0.92</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.94543881126709395</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="33">
+        <v>0.95416142388142899</v>
+      </c>
+      <c r="D5" s="34">
         <v>0.93023865959215402</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="34">
         <v>0.92566195638604598</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="34">
         <v>0.92566195638604598</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="34">
         <v>0.94</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="35">
         <v>0.91</v>
       </c>
-      <c r="I5" s="32">
-        <f t="shared" si="0"/>
-        <v>2.7650881812058596E-2</v>
-      </c>
-      <c r="J5" s="15">
-        <f>ABS(D5-$B5)/$B5</f>
+      <c r="I5" s="31">
+        <f t="shared" si="2"/>
+        <v>3.7131982479814078E-2</v>
+      </c>
+      <c r="J5" s="31">
+        <f t="shared" si="3"/>
         <v>1.1128977817558668E-2</v>
       </c>
-      <c r="K5" s="15">
-        <f>ABS(E5-$B5)/$B5</f>
+      <c r="K5" s="31">
+        <f t="shared" si="4"/>
         <v>6.1543004196151531E-3</v>
       </c>
-      <c r="L5" s="15">
-        <f>ABS(F5-$B5)/$B5</f>
+      <c r="L5" s="31">
+        <f t="shared" si="5"/>
         <v>6.1543004196151531E-3</v>
       </c>
-      <c r="M5" s="15">
-        <f t="shared" si="1"/>
+      <c r="M5" s="31">
+        <f t="shared" si="6"/>
         <v>2.1739130434782507E-2</v>
       </c>
-      <c r="N5" s="33">
-        <f>ABS(H5-$B5)/$B5</f>
+      <c r="N5" s="31">
+        <f t="shared" si="7"/>
         <v>1.0869565217391313E-2</v>
       </c>
-      <c r="O5" s="37">
-        <f t="shared" si="2"/>
-        <v>2.5438811267093908E-2</v>
-      </c>
-      <c r="P5" s="23">
-        <f t="shared" si="3"/>
+      <c r="O5" s="47">
+        <f t="shared" si="8"/>
+        <v>3.4161423881428954E-2</v>
+      </c>
+      <c r="P5" s="48">
+        <f t="shared" si="9"/>
         <v>1.0238659592153976E-2</v>
       </c>
-      <c r="Q5" s="23">
-        <f t="shared" si="4"/>
+      <c r="Q5" s="48">
+        <f t="shared" si="10"/>
         <v>5.661956386045941E-3</v>
       </c>
-      <c r="R5" s="23">
-        <f t="shared" si="5"/>
+      <c r="R5" s="48">
+        <f t="shared" si="11"/>
         <v>5.661956386045941E-3</v>
       </c>
-      <c r="S5" s="23">
-        <f t="shared" si="6"/>
+      <c r="S5" s="48">
+        <f t="shared" si="12"/>
         <v>1.9999999999999907E-2</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="49">
         <f>ABS(H5-$B5)</f>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="32">
         <v>0.6</v>
       </c>
-      <c r="C6" s="15">
-        <v>0.54718055894817696</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="33">
+        <v>0.57072733231742501</v>
+      </c>
+      <c r="D6" s="34">
         <v>0.53439999112154102</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="34">
         <v>0.549685994585972</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="34">
         <v>0.549685994585972</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="34">
         <v>0.77</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="35">
         <v>0.62</v>
       </c>
-      <c r="I6" s="32">
-        <f t="shared" si="0"/>
-        <v>8.8032401753038364E-2</v>
-      </c>
-      <c r="J6" s="15">
-        <f>ABS(D6-$B6)/$B6</f>
+      <c r="I6" s="31">
+        <f t="shared" si="2"/>
+        <v>4.878777947095829E-2</v>
+      </c>
+      <c r="J6" s="31">
+        <f t="shared" si="3"/>
         <v>0.10933334813076494</v>
       </c>
-      <c r="K6" s="15">
-        <f>ABS(E6-$B6)/$B6</f>
+      <c r="K6" s="31">
+        <f t="shared" si="4"/>
         <v>8.3856675690046623E-2</v>
       </c>
-      <c r="L6" s="15">
-        <f>ABS(F6-$B6)/$B6</f>
+      <c r="L6" s="31">
+        <f t="shared" si="5"/>
         <v>8.3856675690046623E-2</v>
       </c>
-      <c r="M6" s="15">
-        <f t="shared" si="1"/>
+      <c r="M6" s="31">
+        <f t="shared" si="6"/>
         <v>0.28333333333333344</v>
       </c>
-      <c r="N6" s="33">
-        <f>ABS(H6-$B6)/$B6</f>
+      <c r="N6" s="31">
+        <f t="shared" si="7"/>
         <v>3.3333333333333368E-2</v>
       </c>
-      <c r="O6" s="37">
-        <f t="shared" si="2"/>
-        <v>5.2819441051823013E-2</v>
-      </c>
-      <c r="P6" s="23">
-        <f t="shared" si="3"/>
+      <c r="O6" s="47">
+        <f t="shared" si="8"/>
+        <v>2.9272667682574971E-2</v>
+      </c>
+      <c r="P6" s="48">
+        <f t="shared" si="9"/>
         <v>6.560000887845896E-2</v>
       </c>
-      <c r="Q6" s="23">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="48">
+        <f t="shared" si="10"/>
         <v>5.0314005414027974E-2</v>
       </c>
-      <c r="R6" s="23">
-        <f t="shared" si="5"/>
+      <c r="R6" s="48">
+        <f t="shared" si="11"/>
         <v>5.0314005414027974E-2</v>
       </c>
-      <c r="S6" s="23">
-        <f t="shared" si="6"/>
+      <c r="S6" s="48">
+        <f t="shared" si="12"/>
         <v>0.17000000000000004</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6" s="49">
         <f>ABS(H6-$B6)</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="32">
         <v>0.81</v>
       </c>
-      <c r="C7" s="15">
-        <v>0.84830413244171798</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="33">
+        <v>0.79580308394125698</v>
+      </c>
+      <c r="D7" s="34">
         <v>0.773743064866111</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="36">
         <v>0.82533717002915097</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="61">
         <v>0.79540706349657697</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="34">
         <v>0.94</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="32">
-        <f t="shared" si="0"/>
-        <v>4.7289052397182625E-2</v>
-      </c>
-      <c r="J7" s="15">
-        <f>ABS(D7-$B7)/$B7</f>
+      <c r="I7" s="31">
+        <f t="shared" si="2"/>
+        <v>1.7527056862645763E-2</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="3"/>
         <v>4.4761648313443279E-2</v>
       </c>
-      <c r="K7" s="15">
-        <f>ABS(E7-$B7)/$B7</f>
+      <c r="K7" s="31">
+        <f t="shared" si="4"/>
         <v>1.8934777813766561E-2</v>
       </c>
-      <c r="L7" s="15">
-        <f>ABS(F7-$B7)/$B7</f>
+      <c r="L7" s="31">
+        <f t="shared" si="5"/>
         <v>1.8015970991880348E-2</v>
       </c>
-      <c r="M7" s="15">
-        <f t="shared" si="1"/>
+      <c r="M7" s="31">
+        <f t="shared" si="6"/>
         <v>0.16049382716049368</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="37">
+      <c r="N7" s="31"/>
+      <c r="O7" s="47">
+        <f t="shared" si="8"/>
+        <v>1.419691605874307E-2</v>
+      </c>
+      <c r="P7" s="48">
+        <f t="shared" si="9"/>
+        <v>3.6256935133889057E-2</v>
+      </c>
+      <c r="Q7" s="48">
+        <f t="shared" si="10"/>
+        <v>1.5337170029150915E-2</v>
+      </c>
+      <c r="R7" s="48">
+        <f t="shared" si="11"/>
+        <v>1.4592936503423082E-2</v>
+      </c>
+      <c r="S7" s="48">
+        <f t="shared" si="12"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="T7" s="49"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0.87</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.94481178903838803</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0.90407080886992497</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0.85842511814913702</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.85842511814913702</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0.96</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="I8" s="31">
         <f t="shared" si="2"/>
-        <v>3.8304132441717931E-2</v>
-      </c>
-      <c r="P7" s="23">
+        <v>8.5990562113089697E-2</v>
+      </c>
+      <c r="J8" s="31">
         <f t="shared" si="3"/>
-        <v>3.6256935133889057E-2</v>
-      </c>
-      <c r="Q7" s="23">
+        <v>3.9161849275775831E-2</v>
+      </c>
+      <c r="K8" s="31">
         <f t="shared" si="4"/>
-        <v>1.5337170029150915E-2</v>
-      </c>
-      <c r="R7" s="23">
+        <v>1.3304461897543647E-2</v>
+      </c>
+      <c r="L8" s="31">
         <f t="shared" si="5"/>
-        <v>1.4592936503423082E-2</v>
-      </c>
-      <c r="S7" s="23">
+        <v>1.3304461897543647E-2</v>
+      </c>
+      <c r="M8" s="31">
         <f t="shared" si="6"/>
-        <v>0.12999999999999989</v>
-      </c>
-      <c r="T7" s="38"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0.87</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.91229467850977097</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.90407080886992497</v>
-      </c>
-      <c r="E8">
-        <v>0.85842511814913702</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.85842511814913702</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0.96</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0.92</v>
-      </c>
-      <c r="I8" s="32">
-        <f t="shared" si="0"/>
-        <v>4.8614572999736753E-2</v>
-      </c>
-      <c r="J8" s="15">
-        <f>ABS(D8-$B8)/$B8</f>
-        <v>3.9161849275775831E-2</v>
-      </c>
-      <c r="K8" s="15">
-        <f>ABS(E8-$B8)/$B8</f>
-        <v>1.3304461897543647E-2</v>
-      </c>
-      <c r="L8" s="15">
-        <f>ABS(F8-$B8)/$B8</f>
-        <v>1.3304461897543647E-2</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" si="1"/>
         <v>0.10344827586206894</v>
       </c>
-      <c r="N8" s="33">
-        <f>ABS(H8-$B8)/$B8</f>
+      <c r="N8" s="31">
+        <f t="shared" si="7"/>
         <v>5.7471264367816147E-2</v>
       </c>
-      <c r="O8" s="37">
-        <f t="shared" si="2"/>
-        <v>4.2294678509770978E-2</v>
-      </c>
-      <c r="P8" s="23">
-        <f t="shared" si="3"/>
+      <c r="O8" s="47">
+        <f t="shared" si="8"/>
+        <v>7.4811789038388032E-2</v>
+      </c>
+      <c r="P8" s="48">
+        <f t="shared" si="9"/>
         <v>3.4070808869924973E-2</v>
       </c>
-      <c r="Q8" s="23">
-        <f t="shared" si="4"/>
+      <c r="Q8" s="48">
+        <f t="shared" si="10"/>
         <v>1.1574881850862972E-2</v>
       </c>
-      <c r="R8" s="23">
-        <f t="shared" si="5"/>
+      <c r="R8" s="48">
+        <f t="shared" si="11"/>
         <v>1.1574881850862972E-2</v>
       </c>
-      <c r="S8" s="23">
-        <f t="shared" si="6"/>
+      <c r="S8" s="48">
+        <f t="shared" si="12"/>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="49">
         <f>ABS(H8-$B8)</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="32">
         <v>0.93</v>
       </c>
-      <c r="C9" s="15">
-        <v>0.93355775311628497</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="C9" s="33">
+        <v>0.94588797892241705</v>
+      </c>
+      <c r="D9" s="36">
         <v>0.92082769519101504</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="34">
         <v>0.79636874672984403</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="34">
         <v>0.79636874672984403</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="34">
         <v>0.91</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="35">
         <v>0.91</v>
       </c>
-      <c r="I9" s="32">
-        <f t="shared" si="0"/>
-        <v>3.8255409852526053E-3</v>
-      </c>
-      <c r="J9" s="15">
-        <f>ABS(D9-$B9)/$B9</f>
+      <c r="I9" s="31">
+        <f t="shared" si="2"/>
+        <v>1.7083848303674192E-2</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="3"/>
         <v>9.8626933429946332E-3</v>
       </c>
-      <c r="K9" s="15">
-        <f>ABS(E9-$B9)/$B9</f>
+      <c r="K9" s="31">
+        <f t="shared" si="4"/>
         <v>0.14368951964532903</v>
       </c>
-      <c r="L9" s="15">
-        <f>ABS(F9-$B9)/$B9</f>
+      <c r="L9" s="31">
+        <f t="shared" si="5"/>
         <v>0.14368951964532903</v>
       </c>
-      <c r="M9" s="15">
-        <f t="shared" si="1"/>
+      <c r="M9" s="31">
+        <f t="shared" si="6"/>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="N9" s="33">
-        <f>ABS(H9-$B9)/$B9</f>
+      <c r="N9" s="31">
+        <f t="shared" si="7"/>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="O9" s="37">
-        <f t="shared" si="2"/>
-        <v>3.557753116284923E-3</v>
-      </c>
-      <c r="P9" s="23">
-        <f t="shared" si="3"/>
+      <c r="O9" s="47">
+        <f t="shared" si="8"/>
+        <v>1.5887978922417001E-2</v>
+      </c>
+      <c r="P9" s="48">
+        <f t="shared" si="9"/>
         <v>9.1723048089850101E-3</v>
       </c>
-      <c r="Q9" s="23">
-        <f t="shared" si="4"/>
+      <c r="Q9" s="48">
+        <f t="shared" si="10"/>
         <v>0.13363125327015601</v>
       </c>
-      <c r="R9" s="23">
-        <f t="shared" si="5"/>
+      <c r="R9" s="48">
+        <f t="shared" si="11"/>
         <v>0.13363125327015601</v>
       </c>
-      <c r="S9" s="23">
-        <f t="shared" si="6"/>
+      <c r="S9" s="48">
+        <f t="shared" si="12"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="T9" s="38">
+      <c r="T9" s="49">
         <f>ABS(H9-$B9)</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="32">
         <v>0.9</v>
       </c>
-      <c r="C10" s="15">
-        <v>0.84369166719190802</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="33">
+        <v>0.83887144146661696</v>
+      </c>
+      <c r="D10" s="34">
         <v>0.819694364886148</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="36">
         <v>0.84261813580754197</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="36">
         <v>0.84261813580754197</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="34">
         <v>0.93</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="35">
         <v>0.93</v>
       </c>
-      <c r="I10" s="32">
-        <f t="shared" si="0"/>
-        <v>6.2564814231213337E-2</v>
-      </c>
-      <c r="J10" s="15">
-        <f>ABS(D10-$B10)/$B10</f>
+      <c r="I10" s="31">
+        <f t="shared" si="2"/>
+        <v>6.7920620592647848E-2</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="3"/>
         <v>8.9228483459835584E-2</v>
       </c>
-      <c r="K10" s="15">
-        <f>ABS(E10-$B10)/$B10</f>
+      <c r="K10" s="31">
+        <f t="shared" si="4"/>
         <v>6.3757626880508941E-2</v>
       </c>
-      <c r="L10" s="15">
-        <f>ABS(F10-$B10)/$B10</f>
+      <c r="L10" s="31">
+        <f t="shared" si="5"/>
         <v>6.3757626880508941E-2</v>
       </c>
-      <c r="M10" s="15">
-        <f t="shared" si="1"/>
+      <c r="M10" s="31">
+        <f t="shared" si="6"/>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="N10" s="33">
-        <f>ABS(H10-$B10)/$B10</f>
+      <c r="N10" s="31">
+        <f t="shared" si="7"/>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="O10" s="37">
-        <f t="shared" si="2"/>
-        <v>5.6308332808091999E-2</v>
-      </c>
-      <c r="P10" s="23">
-        <f t="shared" si="3"/>
+      <c r="O10" s="47">
+        <f t="shared" si="8"/>
+        <v>6.1128558533383059E-2</v>
+      </c>
+      <c r="P10" s="48">
+        <f t="shared" si="9"/>
         <v>8.0305635113852025E-2</v>
       </c>
-      <c r="Q10" s="23">
-        <f t="shared" si="4"/>
+      <c r="Q10" s="48">
+        <f t="shared" si="10"/>
         <v>5.7381864192458054E-2</v>
       </c>
-      <c r="R10" s="23">
-        <f t="shared" si="5"/>
+      <c r="R10" s="48">
+        <f t="shared" si="11"/>
         <v>5.7381864192458054E-2</v>
       </c>
-      <c r="S10" s="23">
-        <f t="shared" si="6"/>
+      <c r="S10" s="48">
+        <f t="shared" si="12"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="49">
         <f>ABS(H10-$B10)</f>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="32">
         <v>0.69</v>
       </c>
-      <c r="C11" s="15">
-        <v>0.88938777375056899</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="33">
+        <v>0.75087233166941303</v>
+      </c>
+      <c r="D11" s="36">
         <v>0.68761956317957895</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="34">
         <v>0.76607846863634899</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="34">
         <v>0.76607846863634899</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="34">
         <v>0.9</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="35">
         <v>0.45</v>
       </c>
-      <c r="I11" s="32">
-        <f t="shared" si="0"/>
-        <v>0.28896778804430301</v>
-      </c>
-      <c r="J11" s="15">
-        <f>ABS(D11-$B11)/$B11</f>
+      <c r="I11" s="31">
+        <f t="shared" si="2"/>
+        <v>8.8220770535381285E-2</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" si="3"/>
         <v>3.4499084353927464E-3</v>
       </c>
-      <c r="K11" s="15">
-        <f>ABS(E11-$B11)/$B11</f>
+      <c r="K11" s="31">
+        <f t="shared" si="4"/>
         <v>0.11025865019760731</v>
       </c>
-      <c r="L11" s="15">
-        <f>ABS(F11-$B11)/$B11</f>
+      <c r="L11" s="31">
+        <f t="shared" si="5"/>
         <v>0.11025865019760731</v>
       </c>
-      <c r="M11" s="15">
-        <f t="shared" si="1"/>
+      <c r="M11" s="31">
+        <f t="shared" si="6"/>
         <v>0.30434782608695665</v>
       </c>
-      <c r="N11" s="33">
-        <f>ABS(H11-$B11)/$B11</f>
+      <c r="N11" s="31">
+        <f t="shared" si="7"/>
         <v>0.34782608695652167</v>
       </c>
-      <c r="O11" s="37">
-        <f t="shared" si="2"/>
-        <v>0.19938777375056904</v>
-      </c>
-      <c r="P11" s="23">
-        <f t="shared" si="3"/>
+      <c r="O11" s="47">
+        <f t="shared" si="8"/>
+        <v>6.0872331669413082E-2</v>
+      </c>
+      <c r="P11" s="48">
+        <f t="shared" si="9"/>
         <v>2.3804368204209947E-3</v>
       </c>
-      <c r="Q11" s="23">
-        <f t="shared" si="4"/>
+      <c r="Q11" s="48">
+        <f t="shared" si="10"/>
         <v>7.6078468636349039E-2</v>
       </c>
-      <c r="R11" s="23">
-        <f t="shared" si="5"/>
+      <c r="R11" s="48">
+        <f t="shared" si="11"/>
         <v>7.6078468636349039E-2</v>
       </c>
-      <c r="S11" s="23">
-        <f t="shared" si="6"/>
+      <c r="S11" s="48">
+        <f t="shared" si="12"/>
         <v>0.21000000000000008</v>
       </c>
-      <c r="T11" s="38">
+      <c r="T11" s="49">
         <f>ABS(H11-$B11)</f>
         <v>0.23999999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="60">
         <v>10</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="37">
         <v>0.75</v>
       </c>
-      <c r="C12" s="15">
-        <v>0.93439407909529204</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="38">
+        <v>0.911728323896833</v>
+      </c>
+      <c r="D12" s="39">
         <v>0.88398629533094197</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="59">
         <v>0.75423943556492801</v>
       </c>
-      <c r="F12" s="18">
-        <v>0.90950639393033295</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="62">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G12" s="39">
         <v>0.93</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="40">
         <v>0.89</v>
       </c>
-      <c r="I12" s="34">
-        <f t="shared" si="0"/>
-        <v>0.24585877212705606</v>
-      </c>
-      <c r="J12" s="35">
-        <f>ABS(D12-$B12)/$B12</f>
+      <c r="I12" s="31">
+        <f t="shared" si="2"/>
+        <v>0.21563776519577735</v>
+      </c>
+      <c r="J12" s="31">
+        <f t="shared" si="3"/>
         <v>0.1786483937745893</v>
       </c>
-      <c r="K12" s="35">
-        <f>ABS(E12-$B12)/$B12</f>
+      <c r="K12" s="31">
+        <f t="shared" si="4"/>
         <v>5.6525807532373422E-3</v>
       </c>
-      <c r="L12" s="35">
-        <f>ABS(F12-$B12)/$B12</f>
-        <v>0.21267519190711059</v>
-      </c>
-      <c r="M12" s="35">
-        <f t="shared" si="1"/>
+      <c r="L12" s="31">
+        <f t="shared" si="5"/>
+        <v>0.22666666666666671</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" si="6"/>
         <v>0.24000000000000007</v>
       </c>
-      <c r="N12" s="36">
-        <f>ABS(H12-$B12)/$B12</f>
+      <c r="N12" s="31">
+        <f t="shared" si="7"/>
         <v>0.18666666666666668</v>
       </c>
-      <c r="O12" s="37">
-        <f t="shared" si="2"/>
-        <v>0.18439407909529204</v>
-      </c>
-      <c r="P12" s="39">
-        <f t="shared" si="3"/>
+      <c r="O12" s="50">
+        <f t="shared" si="8"/>
+        <v>0.161728323896833</v>
+      </c>
+      <c r="P12" s="51">
+        <f t="shared" si="9"/>
         <v>0.13398629533094197</v>
       </c>
-      <c r="Q12" s="39">
-        <f t="shared" si="4"/>
+      <c r="Q12" s="51">
+        <f t="shared" si="10"/>
         <v>4.2394355649280069E-3</v>
       </c>
-      <c r="R12" s="39">
-        <f t="shared" si="5"/>
-        <v>0.15950639393033295</v>
-      </c>
-      <c r="S12" s="39">
-        <f t="shared" si="6"/>
+      <c r="R12" s="51">
+        <f t="shared" si="11"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="S12" s="51">
+        <f t="shared" si="12"/>
         <v>0.18000000000000005</v>
       </c>
-      <c r="T12" s="40">
+      <c r="T12" s="52">
         <f>ABS(H12-$B12)</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="27">
+      <c r="A13" s="21"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42">
         <f>AVERAGE(I3:I12)</f>
-        <v>0.10732596088170965</v>
-      </c>
-      <c r="J13" s="27">
+        <v>7.2721539280589748E-2</v>
+      </c>
+      <c r="J13" s="43">
         <f>AVERAGE(J3:J12)</f>
         <v>5.7558214480756861E-2</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="43">
         <f>AVERAGE(K3:K12)</f>
         <v>7.0683562233690572E-2</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="43">
         <f>AVERAGE(L3:L12)</f>
-        <v>9.1293942666889269E-2</v>
-      </c>
-      <c r="M13" s="27">
-        <f t="shared" ref="M13:T13" si="7">AVERAGE(M3:M12)</f>
+        <v>9.2693090142844881E-2</v>
+      </c>
+      <c r="M13" s="43">
+        <f t="shared" ref="M13:T13" si="13">AVERAGE(M3:M12)</f>
         <v>0.14445168920287388</v>
       </c>
-      <c r="N13" s="27">
-        <f t="shared" si="7"/>
+      <c r="N13" s="43">
+        <f t="shared" si="13"/>
         <v>0.14792850037912567</v>
       </c>
-      <c r="O13" s="27">
-        <f t="shared" si="7"/>
-        <v>7.3905898589052194E-2</v>
-      </c>
-      <c r="P13" s="27">
-        <f t="shared" si="7"/>
+      <c r="O13" s="53">
+        <f t="shared" si="13"/>
+        <v>5.5525023552146613E-2</v>
+      </c>
+      <c r="P13" s="53">
+        <f t="shared" si="13"/>
         <v>4.2219618344201501E-2</v>
       </c>
-      <c r="Q13" s="27">
-        <f t="shared" si="7"/>
+      <c r="Q13" s="53">
+        <f t="shared" si="13"/>
         <v>5.0445690296823401E-2</v>
       </c>
-      <c r="R13" s="27">
-        <f t="shared" si="7"/>
-        <v>6.5897962780791103E-2</v>
-      </c>
-      <c r="S13" s="27">
-        <f t="shared" si="7"/>
+      <c r="R13" s="53">
+        <f t="shared" si="13"/>
+        <v>6.6947323387757815E-2</v>
+      </c>
+      <c r="S13" s="53">
+        <f t="shared" si="13"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="T13" s="27">
-        <f t="shared" si="7"/>
+      <c r="T13" s="53">
+        <f t="shared" si="13"/>
         <v>0.10555555555555557</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="15"/>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="O1:T1"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I3:T12">
@@ -2700,7 +2836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J3 I4:I12">
+  <conditionalFormatting sqref="I3:N12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/OFR数据统计-20231007.xlsx
+++ b/OFR数据统计-20231007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stone\python\coronary_ffr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C06258C-6F4D-4351-99F5-F4A3EAFFE71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCE57F5-BB7F-46BE-AF70-49DE730AAF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>朱伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>复现_主观判断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>复现_企业狭窄段(部分修正)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -306,17 +302,19 @@
   </si>
   <si>
     <t>复现
-主观判断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复现
 企业(无修正)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>复现
 企业(部分修正)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>复现_企业划分狭窄段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -665,7 +663,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -674,9 +672,163 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -694,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,7 +916,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,48 +928,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,6 +969,9 @@
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -872,17 +988,68 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1202,7 +1369,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H11"/>
+      <selection activeCell="I1" sqref="I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1612,10 +1779,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="7">
@@ -1631,8 +1798,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="7">
         <v>0.85</v>
       </c>
@@ -1898,924 +2065,875 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.3984375" customWidth="1"/>
     <col min="3" max="3" width="6.69921875" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" customWidth="1"/>
-    <col min="15" max="20" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" customWidth="1"/>
+    <col min="15" max="19" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="56" t="s">
+      <c r="C1" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="58"/>
-    </row>
-    <row r="2" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46"/>
+    </row>
+    <row r="2" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="M2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="S2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="48">
         <v>0.48</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="56">
         <v>0.46288258341742999</v>
       </c>
-      <c r="D3" s="29">
-        <v>0.51123445923787603</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="D3" s="57">
         <v>0.39720912952186999</v>
       </c>
-      <c r="F3" s="29">
+      <c r="E3" s="57">
         <v>0.39720912952186999</v>
       </c>
-      <c r="G3" s="29">
+      <c r="F3" s="57">
         <v>0.6</v>
       </c>
-      <c r="H3" s="30">
+      <c r="G3" s="57">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I3" s="31">
+      <c r="H3" s="58">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I3" s="51">
         <f>ABS(C3-$B3)/$B3</f>
         <v>3.5661284547020812E-2</v>
       </c>
-      <c r="J3" s="31">
-        <f t="shared" ref="J3:N3" si="0">ABS(D3-$B3)/$B3</f>
-        <v>6.5071790078908426E-2</v>
-      </c>
-      <c r="K3" s="31">
-        <f t="shared" si="0"/>
+      <c r="J3" s="27">
+        <f>ABS(D3-$B3)/$B3</f>
         <v>0.17248098016277083</v>
       </c>
-      <c r="L3" s="31">
-        <f t="shared" si="0"/>
+      <c r="K3" s="27">
+        <f>ABS(E3-$B3)/$B3</f>
         <v>0.17248098016277083</v>
       </c>
-      <c r="M3" s="31">
-        <f t="shared" si="0"/>
+      <c r="L3" s="27">
+        <f>ABS(F3-$B3)/$B3</f>
         <v>0.25</v>
       </c>
-      <c r="N3" s="31">
-        <f t="shared" si="0"/>
+      <c r="M3" s="27">
+        <f>ABS(G3-$B3)/$B3</f>
         <v>0.16666666666666682</v>
       </c>
-      <c r="O3" s="44">
-        <f t="shared" ref="O3:T3" si="1">ABS(C3-$B3)</f>
+      <c r="N3" s="27">
+        <f>ABS(H3-$B3)/$B3</f>
+        <v>0.16666666666666682</v>
+      </c>
+      <c r="O3" s="31">
+        <f>ABS(C3-$B3)</f>
         <v>1.7117416582569989E-2</v>
       </c>
-      <c r="P3" s="45">
-        <f t="shared" si="1"/>
-        <v>3.1234459237876044E-2</v>
-      </c>
-      <c r="Q3" s="45">
-        <f t="shared" si="1"/>
+      <c r="P3" s="32">
+        <f>ABS(D3-$B3)</f>
         <v>8.2790870478129996E-2</v>
       </c>
-      <c r="R3" s="45">
-        <f t="shared" si="1"/>
+      <c r="Q3" s="32">
+        <f>ABS(E3-$B3)</f>
         <v>8.2790870478129996E-2</v>
       </c>
-      <c r="S3" s="45">
-        <f t="shared" si="1"/>
+      <c r="R3" s="32">
+        <f>ABS(F3-$B3)</f>
         <v>0.12</v>
       </c>
-      <c r="T3" s="46">
-        <f t="shared" si="1"/>
+      <c r="S3" s="33">
+        <f>ABS(G3-$B3)</f>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="49">
         <v>0.76</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="59">
         <v>0.84607282925571503</v>
       </c>
-      <c r="D4" s="34">
-        <v>0.77895063965551203</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="D4" s="47">
         <v>0.692553002853875</v>
       </c>
-      <c r="F4" s="34">
+      <c r="E4" s="47">
         <v>0.692553002853875</v>
       </c>
-      <c r="G4" s="34">
+      <c r="F4" s="47">
         <v>0.74</v>
       </c>
-      <c r="H4" s="35">
+      <c r="G4" s="47">
         <v>0.4</v>
       </c>
-      <c r="I4" s="31">
-        <f t="shared" ref="I4:I12" si="2">ABS(C4-$B4)/$B4</f>
+      <c r="H4" s="60">
+        <v>0.48</v>
+      </c>
+      <c r="I4" s="51">
+        <f>ABS(C4-$B4)/$B4</f>
         <v>0.11325372270488819</v>
       </c>
-      <c r="J4" s="31">
-        <f t="shared" ref="J4:J12" si="3">ABS(D4-$B4)/$B4</f>
-        <v>2.4935052178305297E-2</v>
-      </c>
-      <c r="K4" s="31">
-        <f t="shared" ref="K4:K12" si="4">ABS(E4-$B4)/$B4</f>
+      <c r="J4" s="27">
+        <f>ABS(D4-$B4)/$B4</f>
         <v>8.8746048876480271E-2</v>
       </c>
-      <c r="L4" s="31">
-        <f t="shared" ref="L4:L12" si="5">ABS(F4-$B4)/$B4</f>
+      <c r="K4" s="27">
+        <f>ABS(E4-$B4)/$B4</f>
         <v>8.8746048876480271E-2</v>
       </c>
-      <c r="M4" s="31">
-        <f t="shared" ref="M4:M12" si="6">ABS(G4-$B4)/$B4</f>
+      <c r="L4" s="27">
+        <f>ABS(F4-$B4)/$B4</f>
         <v>2.6315789473684233E-2</v>
       </c>
-      <c r="N4" s="31">
-        <f t="shared" ref="N4:N12" si="7">ABS(H4-$B4)/$B4</f>
+      <c r="M4" s="27">
+        <f>ABS(G4-$B4)/$B4</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="O4" s="47">
-        <f t="shared" ref="O4:O12" si="8">ABS(C4-$B4)</f>
+      <c r="N4" s="27">
+        <f t="shared" ref="N4:N12" si="0">ABS(H4-$B4)/$B4</f>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="O4" s="34">
+        <f>ABS(C4-$B4)</f>
         <v>8.6072829255715022E-2</v>
       </c>
-      <c r="P4" s="48">
-        <f t="shared" ref="P4:P12" si="9">ABS(D4-$B4)</f>
-        <v>1.8950639655512025E-2</v>
-      </c>
-      <c r="Q4" s="48">
-        <f t="shared" ref="Q4:Q12" si="10">ABS(E4-$B4)</f>
+      <c r="P4" s="35">
+        <f>ABS(D4-$B4)</f>
         <v>6.744699714612501E-2</v>
       </c>
-      <c r="R4" s="48">
-        <f t="shared" ref="R4:R12" si="11">ABS(F4-$B4)</f>
+      <c r="Q4" s="35">
+        <f>ABS(E4-$B4)</f>
         <v>6.744699714612501E-2</v>
       </c>
-      <c r="S4" s="48">
-        <f t="shared" ref="S4:S12" si="12">ABS(G4-$B4)</f>
+      <c r="R4" s="35">
+        <f>ABS(F4-$B4)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="T4" s="49">
-        <f>ABS(H4-$B4)</f>
+      <c r="S4" s="36">
+        <f>ABS(G4-$B4)</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="49">
         <v>0.92</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="59">
         <v>0.95416142388142899</v>
       </c>
-      <c r="D5" s="34">
-        <v>0.93023865959215402</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="D5" s="47">
         <v>0.92566195638604598</v>
       </c>
-      <c r="F5" s="34">
+      <c r="E5" s="47">
         <v>0.92566195638604598</v>
       </c>
-      <c r="G5" s="34">
+      <c r="F5" s="47">
         <v>0.94</v>
       </c>
-      <c r="H5" s="35">
+      <c r="G5" s="47">
         <v>0.91</v>
       </c>
-      <c r="I5" s="31">
-        <f t="shared" si="2"/>
+      <c r="H5" s="60">
+        <v>0.85</v>
+      </c>
+      <c r="I5" s="51">
+        <f>ABS(C5-$B5)/$B5</f>
         <v>3.7131982479814078E-2</v>
       </c>
-      <c r="J5" s="31">
-        <f t="shared" si="3"/>
-        <v>1.1128977817558668E-2</v>
-      </c>
-      <c r="K5" s="31">
-        <f t="shared" si="4"/>
+      <c r="J5" s="27">
+        <f>ABS(D5-$B5)/$B5</f>
         <v>6.1543004196151531E-3</v>
       </c>
-      <c r="L5" s="31">
-        <f t="shared" si="5"/>
+      <c r="K5" s="27">
+        <f>ABS(E5-$B5)/$B5</f>
         <v>6.1543004196151531E-3</v>
       </c>
-      <c r="M5" s="31">
-        <f t="shared" si="6"/>
+      <c r="L5" s="27">
+        <f>ABS(F5-$B5)/$B5</f>
         <v>2.1739130434782507E-2</v>
       </c>
-      <c r="N5" s="31">
-        <f t="shared" si="7"/>
+      <c r="M5" s="27">
+        <f>ABS(G5-$B5)/$B5</f>
         <v>1.0869565217391313E-2</v>
       </c>
-      <c r="O5" s="47">
-        <f t="shared" si="8"/>
+      <c r="N5" s="27">
+        <f t="shared" si="0"/>
+        <v>7.6086956521739191E-2</v>
+      </c>
+      <c r="O5" s="34">
+        <f>ABS(C5-$B5)</f>
         <v>3.4161423881428954E-2</v>
       </c>
-      <c r="P5" s="48">
-        <f t="shared" si="9"/>
-        <v>1.0238659592153976E-2</v>
-      </c>
-      <c r="Q5" s="48">
-        <f t="shared" si="10"/>
+      <c r="P5" s="35">
+        <f>ABS(D5-$B5)</f>
         <v>5.661956386045941E-3</v>
       </c>
-      <c r="R5" s="48">
-        <f t="shared" si="11"/>
+      <c r="Q5" s="35">
+        <f>ABS(E5-$B5)</f>
         <v>5.661956386045941E-3</v>
       </c>
-      <c r="S5" s="48">
-        <f t="shared" si="12"/>
+      <c r="R5" s="35">
+        <f>ABS(F5-$B5)</f>
         <v>1.9999999999999907E-2</v>
       </c>
-      <c r="T5" s="49">
-        <f>ABS(H5-$B5)</f>
+      <c r="S5" s="36">
+        <f>ABS(G5-$B5)</f>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="49">
         <v>0.6</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="59">
         <v>0.57072733231742501</v>
       </c>
-      <c r="D6" s="34">
-        <v>0.53439999112154102</v>
-      </c>
-      <c r="E6" s="34">
+      <c r="D6" s="47">
         <v>0.549685994585972</v>
       </c>
-      <c r="F6" s="34">
+      <c r="E6" s="47">
         <v>0.549685994585972</v>
       </c>
-      <c r="G6" s="34">
+      <c r="F6" s="47">
         <v>0.77</v>
       </c>
-      <c r="H6" s="35">
+      <c r="G6" s="47">
         <v>0.62</v>
       </c>
-      <c r="I6" s="31">
-        <f t="shared" si="2"/>
+      <c r="H6" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="51">
+        <f>ABS(C6-$B6)/$B6</f>
         <v>4.878777947095829E-2</v>
       </c>
-      <c r="J6" s="31">
-        <f t="shared" si="3"/>
-        <v>0.10933334813076494</v>
-      </c>
-      <c r="K6" s="31">
-        <f t="shared" si="4"/>
+      <c r="J6" s="27">
+        <f>ABS(D6-$B6)/$B6</f>
         <v>8.3856675690046623E-2</v>
       </c>
-      <c r="L6" s="31">
-        <f t="shared" si="5"/>
+      <c r="K6" s="27">
+        <f>ABS(E6-$B6)/$B6</f>
         <v>8.3856675690046623E-2</v>
       </c>
-      <c r="M6" s="31">
-        <f t="shared" si="6"/>
+      <c r="L6" s="27">
+        <f>ABS(F6-$B6)/$B6</f>
         <v>0.28333333333333344</v>
       </c>
-      <c r="N6" s="31">
-        <f t="shared" si="7"/>
+      <c r="M6" s="27">
+        <f>ABS(G6-$B6)/$B6</f>
         <v>3.3333333333333368E-2</v>
       </c>
-      <c r="O6" s="47">
-        <f t="shared" si="8"/>
+      <c r="N6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="O6" s="34">
+        <f>ABS(C6-$B6)</f>
         <v>2.9272667682574971E-2</v>
       </c>
-      <c r="P6" s="48">
-        <f t="shared" si="9"/>
-        <v>6.560000887845896E-2</v>
-      </c>
-      <c r="Q6" s="48">
-        <f t="shared" si="10"/>
+      <c r="P6" s="35">
+        <f>ABS(D6-$B6)</f>
         <v>5.0314005414027974E-2</v>
       </c>
-      <c r="R6" s="48">
-        <f t="shared" si="11"/>
+      <c r="Q6" s="35">
+        <f>ABS(E6-$B6)</f>
         <v>5.0314005414027974E-2</v>
       </c>
-      <c r="S6" s="48">
-        <f t="shared" si="12"/>
+      <c r="R6" s="35">
+        <f>ABS(F6-$B6)</f>
         <v>0.17000000000000004</v>
       </c>
-      <c r="T6" s="49">
-        <f>ABS(H6-$B6)</f>
+      <c r="S6" s="36">
+        <f>ABS(G6-$B6)</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="49">
         <v>0.81</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="59">
         <v>0.79580308394125698</v>
       </c>
-      <c r="D7" s="34">
-        <v>0.773743064866111</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="D7" s="54">
         <v>0.82533717002915097</v>
       </c>
-      <c r="F7" s="61">
+      <c r="E7" s="55">
         <v>0.79540706349657697</v>
       </c>
-      <c r="G7" s="34">
+      <c r="F7" s="47">
         <v>0.94</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="31">
-        <f t="shared" si="2"/>
+      <c r="H7" s="60">
+        <v>0.53</v>
+      </c>
+      <c r="I7" s="51">
+        <f>ABS(C7-$B7)/$B7</f>
         <v>1.7527056862645763E-2</v>
       </c>
-      <c r="J7" s="31">
-        <f t="shared" si="3"/>
-        <v>4.4761648313443279E-2</v>
-      </c>
-      <c r="K7" s="31">
-        <f t="shared" si="4"/>
+      <c r="J7" s="27">
+        <f>ABS(D7-$B7)/$B7</f>
         <v>1.8934777813766561E-2</v>
       </c>
-      <c r="L7" s="31">
-        <f t="shared" si="5"/>
+      <c r="K7" s="27">
+        <f>ABS(E7-$B7)/$B7</f>
         <v>1.8015970991880348E-2</v>
       </c>
-      <c r="M7" s="31">
-        <f t="shared" si="6"/>
+      <c r="L7" s="27">
+        <f>ABS(F7-$B7)/$B7</f>
         <v>0.16049382716049368</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="47">
-        <f t="shared" si="8"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.34567901234567905</v>
+      </c>
+      <c r="O7" s="34">
+        <f>ABS(C7-$B7)</f>
         <v>1.419691605874307E-2</v>
       </c>
-      <c r="P7" s="48">
-        <f t="shared" si="9"/>
-        <v>3.6256935133889057E-2</v>
-      </c>
-      <c r="Q7" s="48">
-        <f t="shared" si="10"/>
+      <c r="P7" s="35">
+        <f>ABS(D7-$B7)</f>
         <v>1.5337170029150915E-2</v>
       </c>
-      <c r="R7" s="48">
-        <f t="shared" si="11"/>
+      <c r="Q7" s="35">
+        <f>ABS(E7-$B7)</f>
         <v>1.4592936503423082E-2</v>
       </c>
-      <c r="S7" s="48">
-        <f t="shared" si="12"/>
+      <c r="R7" s="35">
+        <f>ABS(F7-$B7)</f>
         <v>0.12999999999999989</v>
       </c>
-      <c r="T7" s="49"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="49">
         <v>0.87</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="59">
         <v>0.94481178903838803</v>
       </c>
-      <c r="D8" s="34">
-        <v>0.90407080886992497</v>
-      </c>
-      <c r="E8" s="34">
+      <c r="D8" s="47">
         <v>0.85842511814913702</v>
       </c>
-      <c r="F8" s="34">
+      <c r="E8" s="47">
         <v>0.85842511814913702</v>
       </c>
-      <c r="G8" s="34">
+      <c r="F8" s="47">
         <v>0.96</v>
       </c>
-      <c r="H8" s="35">
+      <c r="G8" s="47">
         <v>0.92</v>
       </c>
-      <c r="I8" s="31">
-        <f t="shared" si="2"/>
+      <c r="H8" s="60">
+        <v>0.81</v>
+      </c>
+      <c r="I8" s="51">
+        <f>ABS(C8-$B8)/$B8</f>
         <v>8.5990562113089697E-2</v>
       </c>
-      <c r="J8" s="31">
-        <f t="shared" si="3"/>
-        <v>3.9161849275775831E-2</v>
-      </c>
-      <c r="K8" s="31">
-        <f t="shared" si="4"/>
+      <c r="J8" s="27">
+        <f>ABS(D8-$B8)/$B8</f>
         <v>1.3304461897543647E-2</v>
       </c>
-      <c r="L8" s="31">
-        <f t="shared" si="5"/>
+      <c r="K8" s="27">
+        <f>ABS(E8-$B8)/$B8</f>
         <v>1.3304461897543647E-2</v>
       </c>
-      <c r="M8" s="31">
-        <f t="shared" si="6"/>
+      <c r="L8" s="27">
+        <f>ABS(F8-$B8)/$B8</f>
         <v>0.10344827586206894</v>
       </c>
-      <c r="N8" s="31">
-        <f t="shared" si="7"/>
+      <c r="M8" s="27">
+        <f>ABS(G8-$B8)/$B8</f>
         <v>5.7471264367816147E-2</v>
       </c>
-      <c r="O8" s="47">
-        <f t="shared" si="8"/>
+      <c r="N8" s="27">
+        <f t="shared" si="0"/>
+        <v>6.896551724137924E-2</v>
+      </c>
+      <c r="O8" s="34">
+        <f>ABS(C8-$B8)</f>
         <v>7.4811789038388032E-2</v>
       </c>
-      <c r="P8" s="48">
-        <f t="shared" si="9"/>
-        <v>3.4070808869924973E-2</v>
-      </c>
-      <c r="Q8" s="48">
-        <f t="shared" si="10"/>
+      <c r="P8" s="35">
+        <f>ABS(D8-$B8)</f>
         <v>1.1574881850862972E-2</v>
       </c>
-      <c r="R8" s="48">
-        <f t="shared" si="11"/>
+      <c r="Q8" s="35">
+        <f>ABS(E8-$B8)</f>
         <v>1.1574881850862972E-2</v>
       </c>
-      <c r="S8" s="48">
-        <f t="shared" si="12"/>
+      <c r="R8" s="35">
+        <f>ABS(F8-$B8)</f>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="T8" s="49">
-        <f>ABS(H8-$B8)</f>
+      <c r="S8" s="36">
+        <f>ABS(G8-$B8)</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="49">
         <v>0.93</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="59">
         <v>0.94588797892241705</v>
       </c>
-      <c r="D9" s="36">
-        <v>0.92082769519101504</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="D9" s="47">
         <v>0.79636874672984403</v>
       </c>
-      <c r="F9" s="34">
+      <c r="E9" s="47">
         <v>0.79636874672984403</v>
       </c>
-      <c r="G9" s="34">
+      <c r="F9" s="47">
         <v>0.91</v>
       </c>
-      <c r="H9" s="35">
+      <c r="G9" s="47">
         <v>0.91</v>
       </c>
-      <c r="I9" s="31">
-        <f t="shared" si="2"/>
+      <c r="H9" s="60">
+        <v>0.72</v>
+      </c>
+      <c r="I9" s="51">
+        <f>ABS(C9-$B9)/$B9</f>
         <v>1.7083848303674192E-2</v>
       </c>
-      <c r="J9" s="31">
-        <f t="shared" si="3"/>
-        <v>9.8626933429946332E-3</v>
-      </c>
-      <c r="K9" s="31">
-        <f t="shared" si="4"/>
+      <c r="J9" s="27">
+        <f>ABS(D9-$B9)/$B9</f>
         <v>0.14368951964532903</v>
       </c>
-      <c r="L9" s="31">
-        <f t="shared" si="5"/>
+      <c r="K9" s="27">
+        <f>ABS(E9-$B9)/$B9</f>
         <v>0.14368951964532903</v>
       </c>
-      <c r="M9" s="31">
-        <f t="shared" si="6"/>
+      <c r="L9" s="27">
+        <f>ABS(F9-$B9)/$B9</f>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="N9" s="31">
-        <f t="shared" si="7"/>
+      <c r="M9" s="27">
+        <f>ABS(G9-$B9)/$B9</f>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="O9" s="47">
-        <f t="shared" si="8"/>
+      <c r="N9" s="27">
+        <f t="shared" si="0"/>
+        <v>0.2258064516129033</v>
+      </c>
+      <c r="O9" s="34">
+        <f>ABS(C9-$B9)</f>
         <v>1.5887978922417001E-2</v>
       </c>
-      <c r="P9" s="48">
-        <f t="shared" si="9"/>
-        <v>9.1723048089850101E-3</v>
-      </c>
-      <c r="Q9" s="48">
-        <f t="shared" si="10"/>
+      <c r="P9" s="35">
+        <f>ABS(D9-$B9)</f>
         <v>0.13363125327015601</v>
       </c>
-      <c r="R9" s="48">
-        <f t="shared" si="11"/>
+      <c r="Q9" s="35">
+        <f>ABS(E9-$B9)</f>
         <v>0.13363125327015601</v>
       </c>
-      <c r="S9" s="48">
-        <f t="shared" si="12"/>
+      <c r="R9" s="35">
+        <f>ABS(F9-$B9)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="T9" s="49">
-        <f>ABS(H9-$B9)</f>
+      <c r="S9" s="36">
+        <f>ABS(G9-$B9)</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="49">
         <v>0.9</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="59">
         <v>0.83887144146661696</v>
       </c>
-      <c r="D10" s="34">
-        <v>0.819694364886148</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="D10" s="54">
         <v>0.84261813580754197</v>
       </c>
-      <c r="F10" s="36">
+      <c r="E10" s="54">
         <v>0.84261813580754197</v>
       </c>
-      <c r="G10" s="34">
+      <c r="F10" s="47">
         <v>0.93</v>
       </c>
-      <c r="H10" s="35">
+      <c r="G10" s="47">
         <v>0.93</v>
       </c>
-      <c r="I10" s="31">
-        <f t="shared" si="2"/>
+      <c r="H10" s="60">
+        <v>0.63</v>
+      </c>
+      <c r="I10" s="51">
+        <f>ABS(C10-$B10)/$B10</f>
         <v>6.7920620592647848E-2</v>
       </c>
-      <c r="J10" s="31">
-        <f t="shared" si="3"/>
-        <v>8.9228483459835584E-2</v>
-      </c>
-      <c r="K10" s="31">
-        <f t="shared" si="4"/>
+      <c r="J10" s="27">
+        <f>ABS(D10-$B10)/$B10</f>
         <v>6.3757626880508941E-2</v>
       </c>
-      <c r="L10" s="31">
-        <f t="shared" si="5"/>
+      <c r="K10" s="27">
+        <f>ABS(E10-$B10)/$B10</f>
         <v>6.3757626880508941E-2</v>
       </c>
-      <c r="M10" s="31">
-        <f t="shared" si="6"/>
+      <c r="L10" s="27">
+        <f>ABS(F10-$B10)/$B10</f>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="N10" s="31">
-        <f t="shared" si="7"/>
+      <c r="M10" s="27">
+        <f>ABS(G10-$B10)/$B10</f>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="O10" s="47">
-        <f t="shared" si="8"/>
+      <c r="N10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="34">
+        <f>ABS(C10-$B10)</f>
         <v>6.1128558533383059E-2</v>
       </c>
-      <c r="P10" s="48">
-        <f t="shared" si="9"/>
-        <v>8.0305635113852025E-2</v>
-      </c>
-      <c r="Q10" s="48">
-        <f t="shared" si="10"/>
+      <c r="P10" s="35">
+        <f>ABS(D10-$B10)</f>
         <v>5.7381864192458054E-2</v>
       </c>
-      <c r="R10" s="48">
-        <f t="shared" si="11"/>
+      <c r="Q10" s="35">
+        <f>ABS(E10-$B10)</f>
         <v>5.7381864192458054E-2</v>
       </c>
-      <c r="S10" s="48">
-        <f t="shared" si="12"/>
+      <c r="R10" s="35">
+        <f>ABS(F10-$B10)</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="T10" s="49">
-        <f>ABS(H10-$B10)</f>
+      <c r="S10" s="36">
+        <f>ABS(G10-$B10)</f>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="49">
         <v>0.69</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="59">
         <v>0.75087233166941303</v>
       </c>
-      <c r="D11" s="36">
-        <v>0.68761956317957895</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="D11" s="47">
         <v>0.76607846863634899</v>
       </c>
-      <c r="F11" s="34">
+      <c r="E11" s="47">
         <v>0.76607846863634899</v>
       </c>
-      <c r="G11" s="34">
+      <c r="F11" s="47">
         <v>0.9</v>
       </c>
-      <c r="H11" s="35">
+      <c r="G11" s="47">
         <v>0.45</v>
       </c>
-      <c r="I11" s="31">
-        <f t="shared" si="2"/>
+      <c r="H11" s="60">
+        <v>0.37</v>
+      </c>
+      <c r="I11" s="51">
+        <f>ABS(C11-$B11)/$B11</f>
         <v>8.8220770535381285E-2</v>
       </c>
-      <c r="J11" s="31">
-        <f t="shared" si="3"/>
-        <v>3.4499084353927464E-3</v>
-      </c>
-      <c r="K11" s="31">
-        <f t="shared" si="4"/>
+      <c r="J11" s="27">
+        <f>ABS(D11-$B11)/$B11</f>
         <v>0.11025865019760731</v>
       </c>
-      <c r="L11" s="31">
-        <f t="shared" si="5"/>
+      <c r="K11" s="27">
+        <f>ABS(E11-$B11)/$B11</f>
         <v>0.11025865019760731</v>
       </c>
-      <c r="M11" s="31">
-        <f t="shared" si="6"/>
+      <c r="L11" s="27">
+        <f>ABS(F11-$B11)/$B11</f>
         <v>0.30434782608695665</v>
       </c>
-      <c r="N11" s="31">
-        <f t="shared" si="7"/>
+      <c r="M11" s="27">
+        <f>ABS(G11-$B11)/$B11</f>
         <v>0.34782608695652167</v>
       </c>
-      <c r="O11" s="47">
-        <f t="shared" si="8"/>
+      <c r="N11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.46376811594202894</v>
+      </c>
+      <c r="O11" s="34">
+        <f>ABS(C11-$B11)</f>
         <v>6.0872331669413082E-2</v>
       </c>
-      <c r="P11" s="48">
-        <f t="shared" si="9"/>
-        <v>2.3804368204209947E-3</v>
-      </c>
-      <c r="Q11" s="48">
-        <f t="shared" si="10"/>
+      <c r="P11" s="35">
+        <f>ABS(D11-$B11)</f>
         <v>7.6078468636349039E-2</v>
       </c>
-      <c r="R11" s="48">
-        <f t="shared" si="11"/>
+      <c r="Q11" s="35">
+        <f>ABS(E11-$B11)</f>
         <v>7.6078468636349039E-2</v>
       </c>
-      <c r="S11" s="48">
-        <f t="shared" si="12"/>
+      <c r="R11" s="35">
+        <f>ABS(F11-$B11)</f>
         <v>0.21000000000000008</v>
       </c>
-      <c r="T11" s="49">
-        <f>ABS(H11-$B11)</f>
+      <c r="S11" s="36">
+        <f>ABS(G11-$B11)</f>
         <v>0.23999999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60">
+    <row r="12" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="50">
         <v>0.75</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="61">
         <v>0.911728323896833</v>
       </c>
-      <c r="D12" s="39">
-        <v>0.88398629533094197</v>
-      </c>
-      <c r="E12" s="59">
+      <c r="D12" s="62">
         <v>0.75423943556492801</v>
       </c>
-      <c r="F12" s="62">
+      <c r="E12" s="63">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G12" s="39">
+      <c r="F12" s="64">
         <v>0.93</v>
       </c>
-      <c r="H12" s="40">
+      <c r="G12" s="64">
         <v>0.89</v>
       </c>
-      <c r="I12" s="31">
-        <f t="shared" si="2"/>
+      <c r="H12" s="65">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I12" s="51">
+        <f>ABS(C12-$B12)/$B12</f>
         <v>0.21563776519577735</v>
       </c>
-      <c r="J12" s="31">
-        <f t="shared" si="3"/>
-        <v>0.1786483937745893</v>
-      </c>
-      <c r="K12" s="31">
-        <f t="shared" si="4"/>
+      <c r="J12" s="27">
+        <f>ABS(D12-$B12)/$B12</f>
         <v>5.6525807532373422E-3</v>
       </c>
-      <c r="L12" s="31">
-        <f t="shared" si="5"/>
+      <c r="K12" s="27">
+        <f>ABS(E12-$B12)/$B12</f>
         <v>0.22666666666666671</v>
       </c>
-      <c r="M12" s="31">
-        <f t="shared" si="6"/>
+      <c r="L12" s="27">
+        <f>ABS(F12-$B12)/$B12</f>
         <v>0.24000000000000007</v>
       </c>
-      <c r="N12" s="31">
-        <f t="shared" si="7"/>
+      <c r="M12" s="27">
+        <f>ABS(G12-$B12)/$B12</f>
         <v>0.18666666666666668</v>
       </c>
-      <c r="O12" s="50">
-        <f t="shared" si="8"/>
+      <c r="N12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="O12" s="37">
+        <f>ABS(C12-$B12)</f>
         <v>0.161728323896833</v>
       </c>
-      <c r="P12" s="51">
-        <f t="shared" si="9"/>
-        <v>0.13398629533094197</v>
-      </c>
-      <c r="Q12" s="51">
-        <f t="shared" si="10"/>
+      <c r="P12" s="38">
+        <f>ABS(D12-$B12)</f>
         <v>4.2394355649280069E-3</v>
       </c>
-      <c r="R12" s="51">
-        <f t="shared" si="11"/>
+      <c r="Q12" s="38">
+        <f>ABS(E12-$B12)</f>
         <v>0.17000000000000004</v>
       </c>
-      <c r="S12" s="51">
-        <f t="shared" si="12"/>
+      <c r="R12" s="38">
+        <f>ABS(F12-$B12)</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="T12" s="52">
-        <f>ABS(H12-$B12)</f>
+      <c r="S12" s="39">
+        <f>ABS(G12-$B12)</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29">
         <f>AVERAGE(I3:I12)</f>
         <v>7.2721539280589748E-2</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="30">
         <f>AVERAGE(J3:J12)</f>
-        <v>5.7558214480756861E-2</v>
-      </c>
-      <c r="K13" s="43">
+        <v>7.0683562233690572E-2</v>
+      </c>
+      <c r="K13" s="30">
         <f>AVERAGE(K3:K12)</f>
-        <v>7.0683562233690572E-2</v>
-      </c>
-      <c r="L13" s="43">
-        <f>AVERAGE(L3:L12)</f>
         <v>9.2693090142844881E-2</v>
       </c>
-      <c r="M13" s="43">
-        <f t="shared" ref="M13:T13" si="13">AVERAGE(M3:M12)</f>
+      <c r="L13" s="30">
+        <f t="shared" ref="L13:S13" si="1">AVERAGE(L3:L12)</f>
         <v>0.14445168920287388</v>
       </c>
-      <c r="N13" s="43">
-        <f t="shared" si="13"/>
+      <c r="M13" s="30">
+        <f t="shared" si="1"/>
         <v>0.14792850037912567</v>
       </c>
-      <c r="O13" s="53">
-        <f t="shared" si="13"/>
+      <c r="N13" s="30">
+        <f t="shared" si="1"/>
+        <v>0.24487271062953089</v>
+      </c>
+      <c r="O13" s="40">
+        <f t="shared" si="1"/>
         <v>5.5525023552146613E-2</v>
       </c>
-      <c r="P13" s="53">
-        <f t="shared" si="13"/>
-        <v>4.2219618344201501E-2</v>
-      </c>
-      <c r="Q13" s="53">
-        <f t="shared" si="13"/>
+      <c r="P13" s="40">
+        <f t="shared" si="1"/>
         <v>5.0445690296823401E-2</v>
       </c>
-      <c r="R13" s="53">
-        <f t="shared" si="13"/>
+      <c r="Q13" s="40">
+        <f t="shared" si="1"/>
         <v>6.6947323387757815E-2</v>
       </c>
-      <c r="S13" s="53">
-        <f t="shared" si="13"/>
+      <c r="R13" s="40">
+        <f t="shared" si="1"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="T13" s="53">
-        <f t="shared" si="13"/>
+      <c r="S13" s="40">
+        <f t="shared" si="1"/>
         <v>0.10555555555555557</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:T1"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I3:T12">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="I3:N12">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2826,30 +2944,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:T12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I3:N12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:N12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2860,8 +2956,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:T12">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="O3:S12">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2869,6 +2965,28 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:S12">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:S12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/OFR数据统计-20231007.xlsx
+++ b/OFR数据统计-20231007.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stone\python\coronary_ffr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCE57F5-BB7F-46BE-AF70-49DE730AAF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17464281-310C-46F2-8AC7-B09D4929F2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3 (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>朱伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +316,18 @@
   </si>
   <si>
     <t>复现_企业划分狭窄段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R^2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R²</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -837,6 +850,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -846,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +1010,78 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -986,69 +1095,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1102,22 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1365,6 +1426,763 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FE2B6B-2863-48B5-A4F0-4B8649B04020}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" customWidth="1"/>
+    <col min="11" max="15" width="10.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
+    </row>
+    <row r="2" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43">
+        <v>0.48</v>
+      </c>
+      <c r="C3" s="52">
+        <v>0.52394814183169902</v>
+      </c>
+      <c r="D3" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F3" s="53">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G3" s="46">
+        <f>ABS(C3-$B3)/$B3</f>
+        <v>9.1558628816039669E-2</v>
+      </c>
+      <c r="H3" s="27">
+        <f>ABS(D3-$B3)/$B3</f>
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="27">
+        <f>ABS(E3-$B3)/$B3</f>
+        <v>0.16666666666666682</v>
+      </c>
+      <c r="J3" s="27">
+        <f>ABS(F3-$B3)/$B3</f>
+        <v>0.16666666666666682</v>
+      </c>
+      <c r="K3" s="31" t="e">
+        <f>ABS(#REF!-$B3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="32" t="e">
+        <f>ABS(#REF!-$B3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M3" s="32" t="e">
+        <f>ABS(#REF!-$B3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N3" s="32">
+        <f>ABS(D3-$B3)</f>
+        <v>0.12</v>
+      </c>
+      <c r="O3" s="33">
+        <f>ABS(E3-$B3)</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44">
+        <v>0.76</v>
+      </c>
+      <c r="C4" s="42">
+        <v>0.80106617988634998</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0.48</v>
+      </c>
+      <c r="G4" s="46">
+        <f>ABS(C4-$B4)/$B4</f>
+        <v>5.4034447218881544E-2</v>
+      </c>
+      <c r="H4" s="27">
+        <f>ABS(D4-$B4)/$B4</f>
+        <v>2.6315789473684233E-2</v>
+      </c>
+      <c r="I4" s="27">
+        <f>ABS(E4-$B4)/$B4</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="J4" s="27">
+        <f>ABS(F4-$B4)/$B4</f>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="K4" s="34" t="e">
+        <f>ABS(#REF!-$B4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="35" t="e">
+        <f>ABS(#REF!-$B4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M4" s="35" t="e">
+        <f>ABS(#REF!-$B4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N4" s="35">
+        <f>ABS(D4-$B4)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="O4" s="36">
+        <f>ABS(E4-$B4)</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44">
+        <v>0.92</v>
+      </c>
+      <c r="C5" s="42">
+        <v>0.93296017274031495</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0.85</v>
+      </c>
+      <c r="G5" s="46">
+        <f>ABS(C5-$B5)/$B5</f>
+        <v>1.4087144282950992E-2</v>
+      </c>
+      <c r="H5" s="27">
+        <f>ABS(D5-$B5)/$B5</f>
+        <v>2.1739130434782507E-2</v>
+      </c>
+      <c r="I5" s="27">
+        <f>ABS(E5-$B5)/$B5</f>
+        <v>1.0869565217391313E-2</v>
+      </c>
+      <c r="J5" s="27">
+        <f>ABS(F5-$B5)/$B5</f>
+        <v>7.6086956521739191E-2</v>
+      </c>
+      <c r="K5" s="34" t="e">
+        <f>ABS(#REF!-$B5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="35" t="e">
+        <f>ABS(#REF!-$B5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M5" s="35" t="e">
+        <f>ABS(#REF!-$B5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="35">
+        <f>ABS(D5-$B5)</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="O5" s="36">
+        <f>ABS(E5-$B5)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="42">
+        <v>0.68303012457899903</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.77</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.62</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="46">
+        <f>ABS(C6-$B6)/$B6</f>
+        <v>0.13838354096499844</v>
+      </c>
+      <c r="H6" s="27">
+        <f>ABS(D6-$B6)/$B6</f>
+        <v>0.28333333333333344</v>
+      </c>
+      <c r="I6" s="27">
+        <f>ABS(E6-$B6)/$B6</f>
+        <v>3.3333333333333368E-2</v>
+      </c>
+      <c r="J6" s="27">
+        <f>ABS(F6-$B6)/$B6</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="K6" s="34" t="e">
+        <f>ABS(#REF!-$B6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="35" t="e">
+        <f>ABS(#REF!-$B6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M6" s="35" t="e">
+        <f>ABS(#REF!-$B6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N6" s="35">
+        <f>ABS(D6-$B6)</f>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="O6" s="36">
+        <f>ABS(E6-$B6)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="C7" s="42">
+        <v>0.80478369317451004</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0.53</v>
+      </c>
+      <c r="G7" s="46">
+        <f>ABS(C7-$B7)/$B7</f>
+        <v>6.4398849697407572E-3</v>
+      </c>
+      <c r="H7" s="27">
+        <f>ABS(D7-$B7)/$B7</f>
+        <v>0.16049382716049368</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27">
+        <f>ABS(F7-$B7)/$B7</f>
+        <v>0.34567901234567905</v>
+      </c>
+      <c r="K7" s="34" t="e">
+        <f>ABS(#REF!-$B7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="35" t="e">
+        <f>ABS(#REF!-$B7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M7" s="35" t="e">
+        <f>ABS(#REF!-$B7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N7" s="35">
+        <f>ABS(D7-$B7)</f>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44">
+        <v>0.87</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0.90641197021892805</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.96</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.92</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0.81</v>
+      </c>
+      <c r="G8" s="46">
+        <f>ABS(C8-$B8)/$B8</f>
+        <v>4.1852839332101217E-2</v>
+      </c>
+      <c r="H8" s="27">
+        <f>ABS(D8-$B8)/$B8</f>
+        <v>0.10344827586206894</v>
+      </c>
+      <c r="I8" s="27">
+        <f>ABS(E8-$B8)/$B8</f>
+        <v>5.7471264367816147E-2</v>
+      </c>
+      <c r="J8" s="27">
+        <f>ABS(F8-$B8)/$B8</f>
+        <v>6.896551724137924E-2</v>
+      </c>
+      <c r="K8" s="34" t="e">
+        <f>ABS(#REF!-$B8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="35" t="e">
+        <f>ABS(#REF!-$B8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="35" t="e">
+        <f>ABS(#REF!-$B8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N8" s="35">
+        <f>ABS(D8-$B8)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="O8" s="36">
+        <f>ABS(E8-$B8)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="44">
+        <v>0.93</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0.91619829488512805</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="F9" s="55">
+        <v>0.72</v>
+      </c>
+      <c r="G9" s="46">
+        <f>ABS(C9-$B9)/$B9</f>
+        <v>1.4840543134270965E-2</v>
+      </c>
+      <c r="H9" s="27">
+        <f>ABS(D9-$B9)/$B9</f>
+        <v>2.1505376344086041E-2</v>
+      </c>
+      <c r="I9" s="27">
+        <f>ABS(E9-$B9)/$B9</f>
+        <v>2.1505376344086041E-2</v>
+      </c>
+      <c r="J9" s="27">
+        <f>ABS(F9-$B9)/$B9</f>
+        <v>0.2258064516129033</v>
+      </c>
+      <c r="K9" s="34" t="e">
+        <f>ABS(#REF!-$B9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="35" t="e">
+        <f>ABS(#REF!-$B9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="35" t="e">
+        <f>ABS(#REF!-$B9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="35">
+        <f>ABS(D9-$B9)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="O9" s="36">
+        <f>ABS(E9-$B9)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="42">
+        <v>0.83130570635774104</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0.93</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.93</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0.63</v>
+      </c>
+      <c r="G10" s="46">
+        <f>ABS(C10-$B10)/$B10</f>
+        <v>7.6326992935843316E-2</v>
+      </c>
+      <c r="H10" s="27">
+        <f>ABS(D10-$B10)/$B10</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="I10" s="27">
+        <f>ABS(E10-$B10)/$B10</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="J10" s="27">
+        <f>ABS(F10-$B10)/$B10</f>
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="34" t="e">
+        <f>ABS(#REF!-$B10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="35" t="e">
+        <f>ABS(#REF!-$B10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M10" s="35" t="e">
+        <f>ABS(#REF!-$B10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N10" s="35">
+        <f>ABS(D10-$B10)</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="O10" s="36">
+        <f>ABS(E10-$B10)</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="44">
+        <v>0.69</v>
+      </c>
+      <c r="C11" s="42">
+        <v>0.79903246630556102</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="55">
+        <v>0.37</v>
+      </c>
+      <c r="G11" s="46">
+        <f>ABS(C11-$B11)/$B11</f>
+        <v>0.1580180671095088</v>
+      </c>
+      <c r="H11" s="27">
+        <f>ABS(D11-$B11)/$B11</f>
+        <v>0.30434782608695665</v>
+      </c>
+      <c r="I11" s="27">
+        <f>ABS(E11-$B11)/$B11</f>
+        <v>0.34782608695652167</v>
+      </c>
+      <c r="J11" s="27">
+        <f>ABS(F11-$B11)/$B11</f>
+        <v>0.46376811594202894</v>
+      </c>
+      <c r="K11" s="34" t="e">
+        <f>ABS(#REF!-$B11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="35" t="e">
+        <f>ABS(#REF!-$B11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M11" s="35" t="e">
+        <f>ABS(#REF!-$B11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N11" s="35">
+        <f>ABS(D11-$B11)</f>
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="O11" s="36">
+        <f>ABS(E11-$B11)</f>
+        <v>0.23999999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0.80967732039209495</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0.93</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0.89</v>
+      </c>
+      <c r="F12" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12" s="46">
+        <f>ABS(C12-$B12)/$B12</f>
+        <v>7.9569760522793256E-2</v>
+      </c>
+      <c r="H12" s="27">
+        <f>ABS(D12-$B12)/$B12</f>
+        <v>0.24000000000000007</v>
+      </c>
+      <c r="I12" s="27">
+        <f>ABS(E12-$B12)/$B12</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="J12" s="27">
+        <f>ABS(F12-$B12)/$B12</f>
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="K12" s="37" t="e">
+        <f>ABS(#REF!-$B12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="38" t="e">
+        <f>ABS(#REF!-$B12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M12" s="38" t="e">
+        <f>ABS(#REF!-$B12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N12" s="38">
+        <f>ABS(D12-$B12)</f>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O12" s="39">
+        <f>ABS(E12-$B12)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <f>CORREL($B3:$B12,C3:C12)</f>
+        <v>0.9462331060024578</v>
+      </c>
+      <c r="D13">
+        <f>CORREL($B3:$B12,D3:D12)</f>
+        <v>0.82106328793161798</v>
+      </c>
+      <c r="E13">
+        <f>CORREL($B3:$B12,E3:E12)</f>
+        <v>0.69009310865164819</v>
+      </c>
+      <c r="F13">
+        <f>CORREL($B3:$B12,F3:F12)</f>
+        <v>0.63284795454243703</v>
+      </c>
+      <c r="G13" s="29">
+        <f>AVERAGE(G3:G12)</f>
+        <v>6.75111849287129E-2</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" ref="H13:O13" si="0">AVERAGE(H3:H12)</f>
+        <v>0.14445168920287388</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="0"/>
+        <v>0.14792850037912567</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="0"/>
+        <v>0.24487271062953089</v>
+      </c>
+      <c r="K13" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="0"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O13" s="40">
+        <f t="shared" si="0"/>
+        <v>0.10555555555555557</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K3:O12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:J12">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:O12">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:O12">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -1779,10 +2597,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="7">
@@ -1798,8 +2616,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="7">
         <v>0.85</v>
       </c>
@@ -2063,876 +2881,988 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" customWidth="1"/>
-    <col min="15" max="19" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="17" max="21" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="44" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="44" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="46"/>
-    </row>
-    <row r="2" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="70"/>
+    </row>
+    <row r="2" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="F2" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="H2" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="O2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="43">
         <v>0.48</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="51">
         <v>0.46288258341742999</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="52">
+        <v>0.52394814183169902</v>
+      </c>
+      <c r="E3" s="52">
         <v>0.39720912952186999</v>
       </c>
-      <c r="E3" s="57">
+      <c r="F3" s="52">
         <v>0.39720912952186999</v>
       </c>
-      <c r="F3" s="57">
+      <c r="G3" s="52">
         <v>0.6</v>
       </c>
-      <c r="G3" s="57">
+      <c r="H3" s="52">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H3" s="58">
+      <c r="I3" s="53">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I3" s="51">
+      <c r="J3" s="46">
         <f>ABS(C3-$B3)/$B3</f>
         <v>3.5661284547020812E-2</v>
       </c>
-      <c r="J3" s="27">
+      <c r="K3" s="46">
         <f>ABS(D3-$B3)/$B3</f>
-        <v>0.17248098016277083</v>
-      </c>
-      <c r="K3" s="27">
+        <v>9.1558628816039669E-2</v>
+      </c>
+      <c r="L3" s="27">
         <f>ABS(E3-$B3)/$B3</f>
         <v>0.17248098016277083</v>
       </c>
-      <c r="L3" s="27">
+      <c r="M3" s="27">
         <f>ABS(F3-$B3)/$B3</f>
+        <v>0.17248098016277083</v>
+      </c>
+      <c r="N3" s="27">
+        <f t="shared" ref="N3:P6" si="0">ABS(G3-$B3)/$B3</f>
         <v>0.25</v>
       </c>
-      <c r="M3" s="27">
-        <f>ABS(G3-$B3)/$B3</f>
+      <c r="O3" s="27">
+        <f t="shared" si="0"/>
         <v>0.16666666666666682</v>
       </c>
-      <c r="N3" s="27">
-        <f>ABS(H3-$B3)/$B3</f>
+      <c r="P3" s="27">
+        <f t="shared" si="0"/>
         <v>0.16666666666666682</v>
       </c>
-      <c r="O3" s="31">
+      <c r="Q3" s="31">
         <f>ABS(C3-$B3)</f>
         <v>1.7117416582569989E-2</v>
       </c>
-      <c r="P3" s="32">
-        <f>ABS(D3-$B3)</f>
-        <v>8.2790870478129996E-2</v>
-      </c>
-      <c r="Q3" s="32">
+      <c r="R3" s="32">
         <f>ABS(E3-$B3)</f>
         <v>8.2790870478129996E-2</v>
       </c>
-      <c r="R3" s="32">
+      <c r="S3" s="32">
         <f>ABS(F3-$B3)</f>
+        <v>8.2790870478129996E-2</v>
+      </c>
+      <c r="T3" s="32">
+        <f t="shared" ref="T3:U6" si="1">ABS(G3-$B3)</f>
         <v>0.12</v>
       </c>
-      <c r="S3" s="33">
-        <f>ABS(G3-$B3)</f>
+      <c r="U3" s="33">
+        <f t="shared" si="1"/>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="44">
         <v>0.76</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="54">
         <v>0.84607282925571503</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="42">
+        <v>0.80106617988634998</v>
+      </c>
+      <c r="E4" s="42">
         <v>0.692553002853875</v>
       </c>
-      <c r="E4" s="47">
+      <c r="F4" s="42">
         <v>0.692553002853875</v>
       </c>
-      <c r="F4" s="47">
+      <c r="G4" s="42">
         <v>0.74</v>
       </c>
-      <c r="G4" s="47">
+      <c r="H4" s="42">
         <v>0.4</v>
       </c>
-      <c r="H4" s="60">
+      <c r="I4" s="55">
         <v>0.48</v>
       </c>
-      <c r="I4" s="51">
+      <c r="J4" s="46">
         <f>ABS(C4-$B4)/$B4</f>
         <v>0.11325372270488819</v>
       </c>
-      <c r="J4" s="27">
+      <c r="K4" s="46">
         <f>ABS(D4-$B4)/$B4</f>
-        <v>8.8746048876480271E-2</v>
-      </c>
-      <c r="K4" s="27">
+        <v>5.4034447218881544E-2</v>
+      </c>
+      <c r="L4" s="27">
         <f>ABS(E4-$B4)/$B4</f>
         <v>8.8746048876480271E-2</v>
       </c>
-      <c r="L4" s="27">
+      <c r="M4" s="27">
         <f>ABS(F4-$B4)/$B4</f>
+        <v>8.8746048876480271E-2</v>
+      </c>
+      <c r="N4" s="27">
+        <f t="shared" si="0"/>
         <v>2.6315789473684233E-2</v>
       </c>
-      <c r="M4" s="27">
-        <f>ABS(G4-$B4)/$B4</f>
+      <c r="O4" s="27">
+        <f t="shared" si="0"/>
         <v>0.47368421052631576</v>
       </c>
-      <c r="N4" s="27">
-        <f t="shared" ref="N4:N12" si="0">ABS(H4-$B4)/$B4</f>
+      <c r="P4" s="27">
+        <f t="shared" si="0"/>
         <v>0.36842105263157898</v>
       </c>
-      <c r="O4" s="34">
+      <c r="Q4" s="34">
         <f>ABS(C4-$B4)</f>
         <v>8.6072829255715022E-2</v>
       </c>
-      <c r="P4" s="35">
-        <f>ABS(D4-$B4)</f>
-        <v>6.744699714612501E-2</v>
-      </c>
-      <c r="Q4" s="35">
+      <c r="R4" s="35">
         <f>ABS(E4-$B4)</f>
         <v>6.744699714612501E-2</v>
       </c>
-      <c r="R4" s="35">
+      <c r="S4" s="35">
         <f>ABS(F4-$B4)</f>
+        <v>6.744699714612501E-2</v>
+      </c>
+      <c r="T4" s="35">
+        <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="S4" s="36">
-        <f>ABS(G4-$B4)</f>
+      <c r="U4" s="36">
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="44">
         <v>0.92</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="54">
         <v>0.95416142388142899</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="42">
+        <v>0.93296017274031495</v>
+      </c>
+      <c r="E5" s="42">
         <v>0.92566195638604598</v>
       </c>
-      <c r="E5" s="47">
+      <c r="F5" s="42">
         <v>0.92566195638604598</v>
       </c>
-      <c r="F5" s="47">
+      <c r="G5" s="42">
         <v>0.94</v>
       </c>
-      <c r="G5" s="47">
+      <c r="H5" s="42">
         <v>0.91</v>
       </c>
-      <c r="H5" s="60">
+      <c r="I5" s="55">
         <v>0.85</v>
       </c>
-      <c r="I5" s="51">
+      <c r="J5" s="46">
         <f>ABS(C5-$B5)/$B5</f>
         <v>3.7131982479814078E-2</v>
       </c>
-      <c r="J5" s="27">
+      <c r="K5" s="46">
         <f>ABS(D5-$B5)/$B5</f>
-        <v>6.1543004196151531E-3</v>
-      </c>
-      <c r="K5" s="27">
+        <v>1.4087144282950992E-2</v>
+      </c>
+      <c r="L5" s="27">
         <f>ABS(E5-$B5)/$B5</f>
         <v>6.1543004196151531E-3</v>
       </c>
-      <c r="L5" s="27">
+      <c r="M5" s="27">
         <f>ABS(F5-$B5)/$B5</f>
-        <v>2.1739130434782507E-2</v>
-      </c>
-      <c r="M5" s="27">
-        <f>ABS(G5-$B5)/$B5</f>
-        <v>1.0869565217391313E-2</v>
+        <v>6.1543004196151531E-3</v>
       </c>
       <c r="N5" s="27">
         <f t="shared" si="0"/>
+        <v>2.1739130434782507E-2</v>
+      </c>
+      <c r="O5" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0869565217391313E-2</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" si="0"/>
         <v>7.6086956521739191E-2</v>
       </c>
-      <c r="O5" s="34">
+      <c r="Q5" s="34">
         <f>ABS(C5-$B5)</f>
         <v>3.4161423881428954E-2</v>
       </c>
-      <c r="P5" s="35">
-        <f>ABS(D5-$B5)</f>
-        <v>5.661956386045941E-3</v>
-      </c>
-      <c r="Q5" s="35">
+      <c r="R5" s="35">
         <f>ABS(E5-$B5)</f>
         <v>5.661956386045941E-3</v>
       </c>
-      <c r="R5" s="35">
+      <c r="S5" s="35">
         <f>ABS(F5-$B5)</f>
+        <v>5.661956386045941E-3</v>
+      </c>
+      <c r="T5" s="35">
+        <f t="shared" si="1"/>
         <v>1.9999999999999907E-2</v>
       </c>
-      <c r="S5" s="36">
-        <f>ABS(G5-$B5)</f>
+      <c r="U5" s="36">
+        <f t="shared" si="1"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="44">
         <v>0.6</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="54">
         <v>0.57072733231742501</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="42">
+        <v>0.68303012457899903</v>
+      </c>
+      <c r="E6" s="42">
         <v>0.549685994585972</v>
       </c>
-      <c r="E6" s="47">
+      <c r="F6" s="42">
         <v>0.549685994585972</v>
       </c>
-      <c r="F6" s="47">
+      <c r="G6" s="42">
         <v>0.77</v>
       </c>
-      <c r="G6" s="47">
+      <c r="H6" s="42">
         <v>0.62</v>
       </c>
-      <c r="H6" s="60">
+      <c r="I6" s="55">
         <v>0.5</v>
       </c>
-      <c r="I6" s="51">
+      <c r="J6" s="46">
         <f>ABS(C6-$B6)/$B6</f>
         <v>4.878777947095829E-2</v>
       </c>
-      <c r="J6" s="27">
+      <c r="K6" s="46">
         <f>ABS(D6-$B6)/$B6</f>
-        <v>8.3856675690046623E-2</v>
-      </c>
-      <c r="K6" s="27">
+        <v>0.13838354096499844</v>
+      </c>
+      <c r="L6" s="27">
         <f>ABS(E6-$B6)/$B6</f>
         <v>8.3856675690046623E-2</v>
       </c>
-      <c r="L6" s="27">
+      <c r="M6" s="27">
         <f>ABS(F6-$B6)/$B6</f>
-        <v>0.28333333333333344</v>
-      </c>
-      <c r="M6" s="27">
-        <f>ABS(G6-$B6)/$B6</f>
-        <v>3.3333333333333368E-2</v>
+        <v>8.3856675690046623E-2</v>
       </c>
       <c r="N6" s="27">
         <f t="shared" si="0"/>
+        <v>0.28333333333333344</v>
+      </c>
+      <c r="O6" s="27">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333368E-2</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="O6" s="34">
+      <c r="Q6" s="34">
         <f>ABS(C6-$B6)</f>
         <v>2.9272667682574971E-2</v>
       </c>
-      <c r="P6" s="35">
-        <f>ABS(D6-$B6)</f>
-        <v>5.0314005414027974E-2</v>
-      </c>
-      <c r="Q6" s="35">
+      <c r="R6" s="35">
         <f>ABS(E6-$B6)</f>
         <v>5.0314005414027974E-2</v>
       </c>
-      <c r="R6" s="35">
+      <c r="S6" s="35">
         <f>ABS(F6-$B6)</f>
+        <v>5.0314005414027974E-2</v>
+      </c>
+      <c r="T6" s="35">
+        <f t="shared" si="1"/>
         <v>0.17000000000000004</v>
       </c>
-      <c r="S6" s="36">
-        <f>ABS(G6-$B6)</f>
+      <c r="U6" s="36">
+        <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="44">
         <v>0.81</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="54">
         <v>0.79580308394125698</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="42">
+        <v>0.80478369317451004</v>
+      </c>
+      <c r="E7" s="49">
         <v>0.82533717002915097</v>
       </c>
-      <c r="E7" s="55">
+      <c r="F7" s="50">
         <v>0.79540706349657697</v>
       </c>
-      <c r="F7" s="47">
+      <c r="G7" s="42">
         <v>0.94</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="60">
+      <c r="I7" s="55">
         <v>0.53</v>
       </c>
-      <c r="I7" s="51">
+      <c r="J7" s="46">
         <f>ABS(C7-$B7)/$B7</f>
         <v>1.7527056862645763E-2</v>
       </c>
-      <c r="J7" s="27">
+      <c r="K7" s="46">
         <f>ABS(D7-$B7)/$B7</f>
+        <v>6.4398849697407572E-3</v>
+      </c>
+      <c r="L7" s="27">
+        <f>ABS(E7-$B7)/$B7</f>
         <v>1.8934777813766561E-2</v>
       </c>
-      <c r="K7" s="27">
-        <f>ABS(E7-$B7)/$B7</f>
+      <c r="M7" s="27">
+        <f>ABS(F7-$B7)/$B7</f>
         <v>1.8015970991880348E-2</v>
       </c>
-      <c r="L7" s="27">
-        <f>ABS(F7-$B7)/$B7</f>
+      <c r="N7" s="27">
+        <f t="shared" ref="N7:N12" si="2">ABS(G7-$B7)/$B7</f>
         <v>0.16049382716049368</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27">
-        <f t="shared" si="0"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27">
+        <f t="shared" ref="P7:P12" si="3">ABS(I7-$B7)/$B7</f>
         <v>0.34567901234567905</v>
       </c>
-      <c r="O7" s="34">
+      <c r="Q7" s="34">
         <f>ABS(C7-$B7)</f>
         <v>1.419691605874307E-2</v>
       </c>
-      <c r="P7" s="35">
-        <f>ABS(D7-$B7)</f>
+      <c r="R7" s="35">
+        <f>ABS(E7-$B7)</f>
         <v>1.5337170029150915E-2</v>
       </c>
-      <c r="Q7" s="35">
-        <f>ABS(E7-$B7)</f>
+      <c r="S7" s="35">
+        <f>ABS(F7-$B7)</f>
         <v>1.4592936503423082E-2</v>
       </c>
-      <c r="R7" s="35">
-        <f>ABS(F7-$B7)</f>
+      <c r="T7" s="35">
+        <f t="shared" ref="T7:T12" si="4">ABS(G7-$B7)</f>
         <v>0.12999999999999989</v>
       </c>
-      <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U7" s="36"/>
+    </row>
+    <row r="8" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="44">
         <v>0.87</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="54">
         <v>0.94481178903838803</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="42">
+        <v>0.90641197021892805</v>
+      </c>
+      <c r="E8" s="42">
         <v>0.85842511814913702</v>
       </c>
-      <c r="E8" s="47">
+      <c r="F8" s="42">
         <v>0.85842511814913702</v>
       </c>
-      <c r="F8" s="47">
+      <c r="G8" s="42">
         <v>0.96</v>
       </c>
-      <c r="G8" s="47">
+      <c r="H8" s="42">
         <v>0.92</v>
       </c>
-      <c r="H8" s="60">
+      <c r="I8" s="55">
         <v>0.81</v>
       </c>
-      <c r="I8" s="51">
+      <c r="J8" s="46">
         <f>ABS(C8-$B8)/$B8</f>
         <v>8.5990562113089697E-2</v>
       </c>
-      <c r="J8" s="27">
+      <c r="K8" s="46">
         <f>ABS(D8-$B8)/$B8</f>
-        <v>1.3304461897543647E-2</v>
-      </c>
-      <c r="K8" s="27">
+        <v>4.1852839332101217E-2</v>
+      </c>
+      <c r="L8" s="27">
         <f>ABS(E8-$B8)/$B8</f>
         <v>1.3304461897543647E-2</v>
       </c>
-      <c r="L8" s="27">
+      <c r="M8" s="27">
         <f>ABS(F8-$B8)/$B8</f>
+        <v>1.3304461897543647E-2</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" si="2"/>
         <v>0.10344827586206894</v>
       </c>
-      <c r="M8" s="27">
-        <f>ABS(G8-$B8)/$B8</f>
+      <c r="O8" s="27">
+        <f>ABS(H8-$B8)/$B8</f>
         <v>5.7471264367816147E-2</v>
       </c>
-      <c r="N8" s="27">
-        <f t="shared" si="0"/>
+      <c r="P8" s="27">
+        <f t="shared" si="3"/>
         <v>6.896551724137924E-2</v>
       </c>
-      <c r="O8" s="34">
+      <c r="Q8" s="34">
         <f>ABS(C8-$B8)</f>
         <v>7.4811789038388032E-2</v>
       </c>
-      <c r="P8" s="35">
-        <f>ABS(D8-$B8)</f>
-        <v>1.1574881850862972E-2</v>
-      </c>
-      <c r="Q8" s="35">
+      <c r="R8" s="35">
         <f>ABS(E8-$B8)</f>
         <v>1.1574881850862972E-2</v>
       </c>
-      <c r="R8" s="35">
+      <c r="S8" s="35">
         <f>ABS(F8-$B8)</f>
+        <v>1.1574881850862972E-2</v>
+      </c>
+      <c r="T8" s="35">
+        <f t="shared" si="4"/>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="S8" s="36">
-        <f>ABS(G8-$B8)</f>
+      <c r="U8" s="36">
+        <f>ABS(H8-$B8)</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="44">
         <v>0.93</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="54">
         <v>0.94588797892241705</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="42">
+        <v>0.91619829488512805</v>
+      </c>
+      <c r="E9" s="42">
         <v>0.79636874672984403</v>
       </c>
-      <c r="E9" s="47">
+      <c r="F9" s="42">
         <v>0.79636874672984403</v>
       </c>
-      <c r="F9" s="47">
+      <c r="G9" s="42">
         <v>0.91</v>
       </c>
-      <c r="G9" s="47">
+      <c r="H9" s="42">
         <v>0.91</v>
       </c>
-      <c r="H9" s="60">
+      <c r="I9" s="55">
         <v>0.72</v>
       </c>
-      <c r="I9" s="51">
+      <c r="J9" s="46">
         <f>ABS(C9-$B9)/$B9</f>
         <v>1.7083848303674192E-2</v>
       </c>
-      <c r="J9" s="27">
+      <c r="K9" s="46">
         <f>ABS(D9-$B9)/$B9</f>
-        <v>0.14368951964532903</v>
-      </c>
-      <c r="K9" s="27">
+        <v>1.4840543134270965E-2</v>
+      </c>
+      <c r="L9" s="27">
         <f>ABS(E9-$B9)/$B9</f>
         <v>0.14368951964532903</v>
       </c>
-      <c r="L9" s="27">
+      <c r="M9" s="27">
         <f>ABS(F9-$B9)/$B9</f>
+        <v>0.14368951964532903</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="2"/>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="M9" s="27">
-        <f>ABS(G9-$B9)/$B9</f>
+      <c r="O9" s="27">
+        <f>ABS(H9-$B9)/$B9</f>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="N9" s="27">
-        <f t="shared" si="0"/>
+      <c r="P9" s="27">
+        <f t="shared" si="3"/>
         <v>0.2258064516129033</v>
       </c>
-      <c r="O9" s="34">
+      <c r="Q9" s="34">
         <f>ABS(C9-$B9)</f>
         <v>1.5887978922417001E-2</v>
       </c>
-      <c r="P9" s="35">
-        <f>ABS(D9-$B9)</f>
-        <v>0.13363125327015601</v>
-      </c>
-      <c r="Q9" s="35">
+      <c r="R9" s="35">
         <f>ABS(E9-$B9)</f>
         <v>0.13363125327015601</v>
       </c>
-      <c r="R9" s="35">
+      <c r="S9" s="35">
         <f>ABS(F9-$B9)</f>
+        <v>0.13363125327015601</v>
+      </c>
+      <c r="T9" s="35">
+        <f t="shared" si="4"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="S9" s="36">
-        <f>ABS(G9-$B9)</f>
+      <c r="U9" s="36">
+        <f>ABS(H9-$B9)</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="44">
         <v>0.9</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="54">
         <v>0.83887144146661696</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="42">
+        <v>0.83130570635774104</v>
+      </c>
+      <c r="E10" s="49">
         <v>0.84261813580754197</v>
       </c>
-      <c r="E10" s="54">
+      <c r="F10" s="49">
         <v>0.84261813580754197</v>
       </c>
-      <c r="F10" s="47">
+      <c r="G10" s="42">
         <v>0.93</v>
       </c>
-      <c r="G10" s="47">
+      <c r="H10" s="42">
         <v>0.93</v>
       </c>
-      <c r="H10" s="60">
+      <c r="I10" s="55">
         <v>0.63</v>
       </c>
-      <c r="I10" s="51">
+      <c r="J10" s="46">
         <f>ABS(C10-$B10)/$B10</f>
         <v>6.7920620592647848E-2</v>
       </c>
-      <c r="J10" s="27">
+      <c r="K10" s="46">
         <f>ABS(D10-$B10)/$B10</f>
-        <v>6.3757626880508941E-2</v>
-      </c>
-      <c r="K10" s="27">
+        <v>7.6326992935843316E-2</v>
+      </c>
+      <c r="L10" s="27">
         <f>ABS(E10-$B10)/$B10</f>
         <v>6.3757626880508941E-2</v>
       </c>
-      <c r="L10" s="27">
+      <c r="M10" s="27">
         <f>ABS(F10-$B10)/$B10</f>
+        <v>6.3757626880508941E-2</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="2"/>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="M10" s="27">
-        <f>ABS(G10-$B10)/$B10</f>
+      <c r="O10" s="27">
+        <f>ABS(H10-$B10)/$B10</f>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="N10" s="27">
-        <f t="shared" si="0"/>
+      <c r="P10" s="27">
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="O10" s="34">
+      <c r="Q10" s="34">
         <f>ABS(C10-$B10)</f>
         <v>6.1128558533383059E-2</v>
       </c>
-      <c r="P10" s="35">
-        <f>ABS(D10-$B10)</f>
-        <v>5.7381864192458054E-2</v>
-      </c>
-      <c r="Q10" s="35">
+      <c r="R10" s="35">
         <f>ABS(E10-$B10)</f>
         <v>5.7381864192458054E-2</v>
       </c>
-      <c r="R10" s="35">
+      <c r="S10" s="35">
         <f>ABS(F10-$B10)</f>
+        <v>5.7381864192458054E-2</v>
+      </c>
+      <c r="T10" s="35">
+        <f t="shared" si="4"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="S10" s="36">
-        <f>ABS(G10-$B10)</f>
+      <c r="U10" s="36">
+        <f>ABS(H10-$B10)</f>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="44">
         <v>0.69</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="54">
         <v>0.75087233166941303</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="42">
+        <v>0.79903246630556102</v>
+      </c>
+      <c r="E11" s="42">
         <v>0.76607846863634899</v>
       </c>
-      <c r="E11" s="47">
+      <c r="F11" s="42">
         <v>0.76607846863634899</v>
       </c>
-      <c r="F11" s="47">
+      <c r="G11" s="42">
         <v>0.9</v>
       </c>
-      <c r="G11" s="47">
+      <c r="H11" s="42">
         <v>0.45</v>
       </c>
-      <c r="H11" s="60">
+      <c r="I11" s="55">
         <v>0.37</v>
       </c>
-      <c r="I11" s="51">
+      <c r="J11" s="46">
         <f>ABS(C11-$B11)/$B11</f>
         <v>8.8220770535381285E-2</v>
       </c>
-      <c r="J11" s="27">
+      <c r="K11" s="46">
         <f>ABS(D11-$B11)/$B11</f>
-        <v>0.11025865019760731</v>
-      </c>
-      <c r="K11" s="27">
+        <v>0.1580180671095088</v>
+      </c>
+      <c r="L11" s="27">
         <f>ABS(E11-$B11)/$B11</f>
         <v>0.11025865019760731</v>
       </c>
-      <c r="L11" s="27">
+      <c r="M11" s="27">
         <f>ABS(F11-$B11)/$B11</f>
+        <v>0.11025865019760731</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="2"/>
         <v>0.30434782608695665</v>
       </c>
-      <c r="M11" s="27">
-        <f>ABS(G11-$B11)/$B11</f>
+      <c r="O11" s="27">
+        <f>ABS(H11-$B11)/$B11</f>
         <v>0.34782608695652167</v>
       </c>
-      <c r="N11" s="27">
-        <f t="shared" si="0"/>
+      <c r="P11" s="27">
+        <f t="shared" si="3"/>
         <v>0.46376811594202894</v>
       </c>
-      <c r="O11" s="34">
+      <c r="Q11" s="34">
         <f>ABS(C11-$B11)</f>
         <v>6.0872331669413082E-2</v>
       </c>
-      <c r="P11" s="35">
-        <f>ABS(D11-$B11)</f>
-        <v>7.6078468636349039E-2</v>
-      </c>
-      <c r="Q11" s="35">
+      <c r="R11" s="35">
         <f>ABS(E11-$B11)</f>
         <v>7.6078468636349039E-2</v>
       </c>
-      <c r="R11" s="35">
+      <c r="S11" s="35">
         <f>ABS(F11-$B11)</f>
+        <v>7.6078468636349039E-2</v>
+      </c>
+      <c r="T11" s="35">
+        <f t="shared" si="4"/>
         <v>0.21000000000000008</v>
       </c>
-      <c r="S11" s="36">
-        <f>ABS(G11-$B11)</f>
+      <c r="U11" s="36">
+        <f>ABS(H11-$B11)</f>
         <v>0.23999999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="45">
         <v>0.75</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="56">
         <v>0.911728323896833</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="59">
+        <v>0.80967732039209495</v>
+      </c>
+      <c r="E12" s="57">
         <v>0.75423943556492801</v>
       </c>
-      <c r="E12" s="63">
+      <c r="F12" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F12" s="64">
+      <c r="G12" s="59">
         <v>0.93</v>
       </c>
-      <c r="G12" s="64">
+      <c r="H12" s="59">
         <v>0.89</v>
       </c>
-      <c r="H12" s="65">
+      <c r="I12" s="60">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I12" s="51">
+      <c r="J12" s="46">
         <f>ABS(C12-$B12)/$B12</f>
         <v>0.21563776519577735</v>
       </c>
-      <c r="J12" s="27">
+      <c r="K12" s="46">
         <f>ABS(D12-$B12)/$B12</f>
+        <v>7.9569760522793256E-2</v>
+      </c>
+      <c r="L12" s="27">
+        <f>ABS(E12-$B12)/$B12</f>
         <v>5.6525807532373422E-3</v>
       </c>
-      <c r="K12" s="27">
-        <f>ABS(E12-$B12)/$B12</f>
+      <c r="M12" s="27">
+        <f>ABS(F12-$B12)/$B12</f>
         <v>0.22666666666666671</v>
       </c>
-      <c r="L12" s="27">
-        <f>ABS(F12-$B12)/$B12</f>
+      <c r="N12" s="27">
+        <f t="shared" si="2"/>
         <v>0.24000000000000007</v>
       </c>
-      <c r="M12" s="27">
-        <f>ABS(G12-$B12)/$B12</f>
+      <c r="O12" s="27">
+        <f>ABS(H12-$B12)/$B12</f>
         <v>0.18666666666666668</v>
       </c>
-      <c r="N12" s="27">
-        <f t="shared" si="0"/>
+      <c r="P12" s="27">
+        <f t="shared" si="3"/>
         <v>0.26666666666666661</v>
       </c>
-      <c r="O12" s="37">
+      <c r="Q12" s="37">
         <f>ABS(C12-$B12)</f>
         <v>0.161728323896833</v>
       </c>
-      <c r="P12" s="38">
-        <f>ABS(D12-$B12)</f>
+      <c r="R12" s="38">
+        <f>ABS(E12-$B12)</f>
         <v>4.2394355649280069E-3</v>
       </c>
-      <c r="Q12" s="38">
-        <f>ABS(E12-$B12)</f>
+      <c r="S12" s="38">
+        <f>ABS(F12-$B12)</f>
         <v>0.17000000000000004</v>
       </c>
-      <c r="R12" s="38">
-        <f>ABS(F12-$B12)</f>
+      <c r="T12" s="38">
+        <f t="shared" si="4"/>
         <v>0.18000000000000005</v>
       </c>
-      <c r="S12" s="39">
-        <f>ABS(G12-$B12)</f>
+      <c r="U12" s="39">
+        <f>ABS(H12-$B12)</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="29">
-        <f>AVERAGE(I3:I12)</f>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29">
+        <f>AVERAGE(J3:J12)</f>
         <v>7.2721539280589748E-2</v>
       </c>
-      <c r="J13" s="30">
-        <f>AVERAGE(J3:J12)</f>
+      <c r="K13" s="29">
+        <f>AVERAGE(K3:K12)</f>
+        <v>6.75111849287129E-2</v>
+      </c>
+      <c r="L13" s="30">
+        <f>AVERAGE(L3:L12)</f>
         <v>7.0683562233690572E-2</v>
       </c>
-      <c r="K13" s="30">
-        <f>AVERAGE(K3:K12)</f>
+      <c r="M13" s="30">
+        <f>AVERAGE(M3:M12)</f>
         <v>9.2693090142844881E-2</v>
       </c>
-      <c r="L13" s="30">
-        <f t="shared" ref="L13:S13" si="1">AVERAGE(L3:L12)</f>
+      <c r="N13" s="30">
+        <f t="shared" ref="N13:U13" si="5">AVERAGE(N3:N12)</f>
         <v>0.14445168920287388</v>
       </c>
-      <c r="M13" s="30">
-        <f t="shared" si="1"/>
+      <c r="O13" s="30">
+        <f t="shared" si="5"/>
         <v>0.14792850037912567</v>
       </c>
-      <c r="N13" s="30">
-        <f t="shared" si="1"/>
+      <c r="P13" s="30">
+        <f t="shared" si="5"/>
         <v>0.24487271062953089</v>
       </c>
-      <c r="O13" s="40">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="40">
+        <f t="shared" si="5"/>
         <v>5.5525023552146613E-2</v>
       </c>
-      <c r="P13" s="40">
-        <f t="shared" si="1"/>
+      <c r="R13" s="40">
+        <f t="shared" si="5"/>
         <v>5.0445690296823401E-2</v>
       </c>
-      <c r="Q13" s="40">
-        <f t="shared" si="1"/>
+      <c r="S13" s="40">
+        <f t="shared" si="5"/>
         <v>6.6947323387757815E-2</v>
       </c>
-      <c r="R13" s="40">
-        <f t="shared" si="1"/>
+      <c r="T13" s="40">
+        <f t="shared" si="5"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="S13" s="40">
-        <f t="shared" si="1"/>
+      <c r="U13" s="40">
+        <f t="shared" si="5"/>
         <v>0.10555555555555557</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="15"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <f>CORREL(B3:B12,C3:C12)</f>
+        <v>0.91811751413252929</v>
+      </c>
+      <c r="D14">
+        <f>CORREL(C3:C12,D3:D12)</f>
+        <v>0.95709720827159062</v>
+      </c>
+      <c r="E14">
+        <f>CORREL(D3:D12,E3:E12)</f>
+        <v>0.94584110687661904</v>
+      </c>
+      <c r="F14">
+        <f>CORREL(E3:E12,F3:F12)</f>
+        <v>0.94301457657037802</v>
+      </c>
+      <c r="G14">
+        <f>CORREL(F3:F12,G3:G12)</f>
+        <v>0.81540954065935134</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:I14" si="6">CORREL(G3:G12,H3:H12)</f>
+        <v>0.69025816880402835</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>0.79934712334918734</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I3:N12">
+  <conditionalFormatting sqref="J3:P12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2944,7 +3874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:N12">
+  <conditionalFormatting sqref="J3:P12">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2956,7 +3886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:S12">
+  <conditionalFormatting sqref="Q3:U12">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2968,7 +3898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:S12">
+  <conditionalFormatting sqref="J3:U12">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2980,7 +3910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:S12">
+  <conditionalFormatting sqref="J3:U12">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2996,168 +3926,716 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D74DF75-5B06-49B1-81F4-59A468FECF9B}">
-  <dimension ref="A1:D10"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A780F7-4D71-417E-B715-E51797B1AD74}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
+    </row>
+    <row r="2" spans="1:17" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="63"/>
+      <c r="M2" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>6.5071790078908426E-2</v>
-      </c>
-      <c r="C1">
-        <v>0.17248098016277083</v>
-      </c>
-      <c r="D1">
-        <v>0.17248098016277083</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B3" s="43">
+        <v>0.48</v>
+      </c>
+      <c r="C3" s="51">
+        <v>0.46288258341742999</v>
+      </c>
+      <c r="D3" s="52">
+        <v>0.52394814183169902</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.39720912952186999</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0.39720912952186999</v>
+      </c>
+      <c r="G3" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I3" s="53">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J3">
+        <f>IF(B3&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3" si="0">IF(C3&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3" si="1">IF(D3&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3" si="2">IF(E3&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3" si="3">IF(F3&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3" si="4">IF(G3&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3" si="5">IF(H3&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3" si="6">IF(I3&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2.4935052178305297E-2</v>
-      </c>
-      <c r="C2">
-        <v>8.8746048876480271E-2</v>
-      </c>
-      <c r="D2">
-        <v>8.8746048876480271E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B4" s="44">
+        <v>0.76</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.84607282925571503</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0.80106617988634998</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0.692553002853875</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0.692553002853875</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0.48</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="7">IF(B4&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="8">IF(C4&gt;0.8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="9">IF(D4&gt;0.8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="10">IF(E4&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="11">IF(F4&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O12" si="12">IF(G4&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P12" si="13">IF(H4&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="14">IF(I4&gt;0.8,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1.1128977817558668E-2</v>
-      </c>
-      <c r="C3">
-        <v>6.1543004196151531E-3</v>
-      </c>
-      <c r="D3">
-        <v>6.1543004196151531E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B5" s="44">
+        <v>0.92</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.95416142388142899</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0.93296017274031495</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.92566195638604598</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.92566195638604598</v>
+      </c>
+      <c r="G5" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="H5" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0.85</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.10933334813076494</v>
-      </c>
-      <c r="C4">
-        <v>8.3856675690046623E-2</v>
-      </c>
-      <c r="D4">
-        <v>8.3856675690046623E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B6" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.57072733231742501</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.68303012457899903</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.549685994585972</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.549685994585972</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.77</v>
+      </c>
+      <c r="H6" s="42">
+        <v>0.62</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>4.4761648313443279E-2</v>
-      </c>
-      <c r="C5">
-        <v>1.8934777813766561E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.8015970991880348E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B7" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.79580308394125698</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.80478369317451004</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0.82533717002915097</v>
+      </c>
+      <c r="F7" s="50">
+        <v>0.79540706349657697</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0.53</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>3.9161849275775831E-2</v>
-      </c>
-      <c r="C6">
-        <v>1.3304461897543647E-2</v>
-      </c>
-      <c r="D6">
-        <v>1.3304461897543647E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B8" s="44">
+        <v>0.87</v>
+      </c>
+      <c r="C8" s="54">
+        <v>0.94481178903838803</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.90641197021892805</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.85842511814913702</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.85842511814913702</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0.96</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0.92</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0.81</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>9.8626933429946297E-3</v>
-      </c>
-      <c r="C7">
-        <v>0.14368951964532903</v>
-      </c>
-      <c r="D7">
-        <v>0.14368951964532903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B9" s="44">
+        <v>0.93</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0.94588797892241705</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.91619829488512805</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0.79636874672984403</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.79636874672984403</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0.72</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>8.9228483459835584E-2</v>
-      </c>
-      <c r="C8">
-        <v>6.3757626880508941E-2</v>
-      </c>
-      <c r="D8">
-        <v>6.3757626880508941E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B10" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="54">
+        <v>0.83887144146661696</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0.83130570635774104</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0.84261813580754197</v>
+      </c>
+      <c r="F10" s="49">
+        <v>0.84261813580754197</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0.93</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0.93</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0.63</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>3.4499084353927464E-3</v>
-      </c>
-      <c r="C9">
-        <v>0.11025865019760731</v>
-      </c>
-      <c r="D9">
-        <v>0.11025865019760731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B11" s="44">
+        <v>0.69</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0.75087233166941303</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.79903246630556102</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.76607846863634899</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.76607846863634899</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0.37</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0.1786483937745893</v>
-      </c>
-      <c r="C10">
-        <v>5.6525807532373422E-3</v>
-      </c>
-      <c r="D10">
-        <v>0.21267519190711059</v>
+      <c r="B12" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="56">
+        <v>0.911728323896833</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0.80967732039209495</v>
+      </c>
+      <c r="E12" s="57">
+        <v>0.75423943556492801</v>
+      </c>
+      <c r="F12" s="58">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G12" s="59">
+        <v>0.93</v>
+      </c>
+      <c r="H12" s="59">
+        <v>0.89</v>
+      </c>
+      <c r="I12" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:D10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="K3:Q12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+      <formula>$J3</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>$J3</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="notEqual">
+      <formula>$J3</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="notEqual">
+      <formula>$J3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:Q12">
+    <cfRule type="cellIs" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>$J3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OFR数据统计-20231007.xlsx
+++ b/OFR数据统计-20231007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stone\python\coronary_ffr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17464281-310C-46F2-8AC7-B09D4929F2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41C5C9-76DF-42F5-A2E6-0E4B46F51A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>朱伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,12 +323,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R²</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -445,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -874,6 +886,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -883,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,20 +1187,170 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,146 +1685,146 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.3984375" customWidth="1"/>
     <col min="3" max="3" width="6.69921875" customWidth="1"/>
-    <col min="11" max="15" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="110"/>
+      <c r="B1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
-    </row>
-    <row r="2" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="23" t="s">
+      <c r="C1" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111"/>
+      <c r="B2" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="M2" s="90" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="N2" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="108">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="91">
         <v>0.48</v>
       </c>
-      <c r="C3" s="52">
-        <v>0.52394814183169902</v>
-      </c>
-      <c r="D3" s="52">
+      <c r="C3" s="79">
+        <v>0.47130576100425797</v>
+      </c>
+      <c r="D3" s="80">
         <v>0.6</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="80">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="81">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G3" s="46">
-        <f>ABS(C3-$B3)/$B3</f>
-        <v>9.1558628816039669E-2</v>
-      </c>
-      <c r="H3" s="27">
-        <f>ABS(D3-$B3)/$B3</f>
+      <c r="G3" s="94">
+        <f t="shared" ref="G3:J6" si="0">ABS(C3-$B3)/$B3</f>
+        <v>1.8112997907795855E-2</v>
+      </c>
+      <c r="H3" s="95">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="I3" s="27">
-        <f>ABS(E3-$B3)/$B3</f>
+      <c r="I3" s="95">
+        <f t="shared" si="0"/>
         <v>0.16666666666666682</v>
       </c>
-      <c r="J3" s="27">
-        <f>ABS(F3-$B3)/$B3</f>
+      <c r="J3" s="96">
+        <f t="shared" si="0"/>
         <v>0.16666666666666682</v>
       </c>
-      <c r="K3" s="31" t="e">
-        <f>ABS(#REF!-$B3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L3" s="32" t="e">
-        <f>ABS(#REF!-$B3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="32" t="e">
-        <f>ABS(#REF!-$B3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N3" s="32">
+      <c r="K3" s="100">
+        <f>ABS(C3-$B3)</f>
+        <v>8.6942389957420096E-3</v>
+      </c>
+      <c r="L3" s="101">
         <f>ABS(D3-$B3)</f>
         <v>0.12</v>
       </c>
-      <c r="O3" s="33">
+      <c r="M3" s="101">
         <f>ABS(E3-$B3)</f>
         <v>8.0000000000000071E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="N3" s="102">
+        <f>ABS(F3-$B3)</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="109">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="92">
         <v>0.76</v>
       </c>
-      <c r="C4" s="42">
-        <v>0.80106617988634998</v>
+      <c r="C4" s="82">
+        <v>0.76933470075168298</v>
       </c>
       <c r="D4" s="42">
         <v>0.74</v>
@@ -1577,55 +1832,52 @@
       <c r="E4" s="42">
         <v>0.4</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="83">
         <v>0.48</v>
       </c>
-      <c r="G4" s="46">
-        <f>ABS(C4-$B4)/$B4</f>
-        <v>5.4034447218881544E-2</v>
-      </c>
-      <c r="H4" s="27">
-        <f>ABS(D4-$B4)/$B4</f>
+      <c r="G4" s="97">
+        <f t="shared" si="0"/>
+        <v>1.2282500989056536E-2</v>
+      </c>
+      <c r="H4" s="87">
+        <f t="shared" si="0"/>
         <v>2.6315789473684233E-2</v>
       </c>
-      <c r="I4" s="27">
-        <f>ABS(E4-$B4)/$B4</f>
+      <c r="I4" s="87">
+        <f t="shared" si="0"/>
         <v>0.47368421052631576</v>
       </c>
-      <c r="J4" s="27">
-        <f>ABS(F4-$B4)/$B4</f>
+      <c r="J4" s="72">
+        <f t="shared" si="0"/>
         <v>0.36842105263157898</v>
       </c>
-      <c r="K4" s="34" t="e">
-        <f>ABS(#REF!-$B4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L4" s="35" t="e">
-        <f>ABS(#REF!-$B4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="35" t="e">
-        <f>ABS(#REF!-$B4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" s="35">
+      <c r="K4" s="103">
+        <f t="shared" ref="K4:K12" si="1">ABS(C4-$B4)</f>
+        <v>9.3347007516829672E-3</v>
+      </c>
+      <c r="L4" s="88">
         <f>ABS(D4-$B4)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="O4" s="36">
-        <f>ABS(E4-$B4)</f>
+      <c r="M4" s="88">
+        <f t="shared" ref="M4:M12" si="2">ABS(E4-$B4)</f>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="N4" s="104">
+        <f t="shared" ref="N4:N12" si="3">ABS(F4-$B4)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="109">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="92">
         <v>0.92</v>
       </c>
-      <c r="C5" s="42">
-        <v>0.93296017274031495</v>
+      <c r="C5" s="82">
+        <v>0.89671050892967596</v>
       </c>
       <c r="D5" s="42">
         <v>0.94</v>
@@ -1633,55 +1885,52 @@
       <c r="E5" s="42">
         <v>0.91</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="83">
         <v>0.85</v>
       </c>
-      <c r="G5" s="46">
-        <f>ABS(C5-$B5)/$B5</f>
-        <v>1.4087144282950992E-2</v>
-      </c>
-      <c r="H5" s="27">
-        <f>ABS(D5-$B5)/$B5</f>
+      <c r="G5" s="97">
+        <f t="shared" si="0"/>
+        <v>2.5314664206873994E-2</v>
+      </c>
+      <c r="H5" s="87">
+        <f t="shared" si="0"/>
         <v>2.1739130434782507E-2</v>
       </c>
-      <c r="I5" s="27">
-        <f>ABS(E5-$B5)/$B5</f>
+      <c r="I5" s="87">
+        <f t="shared" si="0"/>
         <v>1.0869565217391313E-2</v>
       </c>
-      <c r="J5" s="27">
-        <f>ABS(F5-$B5)/$B5</f>
+      <c r="J5" s="72">
+        <f t="shared" si="0"/>
         <v>7.6086956521739191E-2</v>
       </c>
-      <c r="K5" s="34" t="e">
-        <f>ABS(#REF!-$B5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="35" t="e">
-        <f>ABS(#REF!-$B5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="35" t="e">
-        <f>ABS(#REF!-$B5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N5" s="35">
+      <c r="K5" s="103">
+        <f t="shared" si="1"/>
+        <v>2.3289491070324075E-2</v>
+      </c>
+      <c r="L5" s="88">
         <f>ABS(D5-$B5)</f>
         <v>1.9999999999999907E-2</v>
       </c>
-      <c r="O5" s="36">
-        <f>ABS(E5-$B5)</f>
+      <c r="M5" s="88">
+        <f t="shared" si="2"/>
         <v>1.0000000000000009E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="N5" s="104">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="109">
         <v>4</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="92">
         <v>0.6</v>
       </c>
-      <c r="C6" s="42">
-        <v>0.68303012457899903</v>
+      <c r="C6" s="82">
+        <v>0.601357465671846</v>
       </c>
       <c r="D6" s="42">
         <v>0.77</v>
@@ -1689,55 +1938,52 @@
       <c r="E6" s="42">
         <v>0.62</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="83">
         <v>0.5</v>
       </c>
-      <c r="G6" s="46">
-        <f>ABS(C6-$B6)/$B6</f>
-        <v>0.13838354096499844</v>
-      </c>
-      <c r="H6" s="27">
-        <f>ABS(D6-$B6)/$B6</f>
+      <c r="G6" s="97">
+        <f t="shared" si="0"/>
+        <v>2.2624427864100425E-3</v>
+      </c>
+      <c r="H6" s="87">
+        <f t="shared" si="0"/>
         <v>0.28333333333333344</v>
       </c>
-      <c r="I6" s="27">
-        <f>ABS(E6-$B6)/$B6</f>
+      <c r="I6" s="87">
+        <f t="shared" si="0"/>
         <v>3.3333333333333368E-2</v>
       </c>
-      <c r="J6" s="27">
-        <f>ABS(F6-$B6)/$B6</f>
+      <c r="J6" s="72">
+        <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="K6" s="34" t="e">
-        <f>ABS(#REF!-$B6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="35" t="e">
-        <f>ABS(#REF!-$B6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="35" t="e">
-        <f>ABS(#REF!-$B6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N6" s="35">
+      <c r="K6" s="103">
+        <f t="shared" si="1"/>
+        <v>1.3574656718460254E-3</v>
+      </c>
+      <c r="L6" s="88">
         <f>ABS(D6-$B6)</f>
         <v>0.17000000000000004</v>
       </c>
-      <c r="O6" s="36">
-        <f>ABS(E6-$B6)</f>
+      <c r="M6" s="88">
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="N6" s="104">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="109">
         <v>5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="92">
         <v>0.81</v>
       </c>
-      <c r="C7" s="42">
-        <v>0.80478369317451004</v>
+      <c r="C7" s="82">
+        <v>0.77600037676840905</v>
       </c>
       <c r="D7" s="42">
         <v>0.94</v>
@@ -1745,49 +1991,46 @@
       <c r="E7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="83">
         <v>0.53</v>
       </c>
-      <c r="G7" s="46">
-        <f>ABS(C7-$B7)/$B7</f>
-        <v>6.4398849697407572E-3</v>
-      </c>
-      <c r="H7" s="27">
-        <f>ABS(D7-$B7)/$B7</f>
+      <c r="G7" s="97">
+        <f t="shared" ref="G7:H12" si="4">ABS(C7-$B7)/$B7</f>
+        <v>4.1974843495791357E-2</v>
+      </c>
+      <c r="H7" s="87">
+        <f t="shared" si="4"/>
         <v>0.16049382716049368</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27">
-        <f>ABS(F7-$B7)/$B7</f>
+      <c r="I7" s="87"/>
+      <c r="J7" s="72">
+        <f t="shared" ref="J7:J12" si="5">ABS(F7-$B7)/$B7</f>
         <v>0.34567901234567905</v>
       </c>
-      <c r="K7" s="34" t="e">
-        <f>ABS(#REF!-$B7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="35" t="e">
-        <f>ABS(#REF!-$B7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="35" t="e">
-        <f>ABS(#REF!-$B7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N7" s="35">
+      <c r="K7" s="103">
+        <f t="shared" si="1"/>
+        <v>3.3999623231591003E-2</v>
+      </c>
+      <c r="L7" s="88">
         <f>ABS(D7-$B7)</f>
         <v>0.12999999999999989</v>
       </c>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="M7" s="88"/>
+      <c r="N7" s="104">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="109">
         <v>6</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="92">
         <v>0.87</v>
       </c>
-      <c r="C8" s="42">
-        <v>0.90641197021892805</v>
+      <c r="C8" s="82">
+        <v>0.87964967057397303</v>
       </c>
       <c r="D8" s="42">
         <v>0.96</v>
@@ -1795,55 +2038,52 @@
       <c r="E8" s="42">
         <v>0.92</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="83">
         <v>0.81</v>
       </c>
-      <c r="G8" s="46">
-        <f>ABS(C8-$B8)/$B8</f>
-        <v>4.1852839332101217E-2</v>
-      </c>
-      <c r="H8" s="27">
-        <f>ABS(D8-$B8)/$B8</f>
+      <c r="G8" s="97">
+        <f t="shared" si="4"/>
+        <v>1.1091575372382799E-2</v>
+      </c>
+      <c r="H8" s="87">
+        <f t="shared" si="4"/>
         <v>0.10344827586206894</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="87">
         <f>ABS(E8-$B8)/$B8</f>
         <v>5.7471264367816147E-2</v>
       </c>
-      <c r="J8" s="27">
-        <f>ABS(F8-$B8)/$B8</f>
+      <c r="J8" s="72">
+        <f t="shared" si="5"/>
         <v>6.896551724137924E-2</v>
       </c>
-      <c r="K8" s="34" t="e">
-        <f>ABS(#REF!-$B8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="35" t="e">
-        <f>ABS(#REF!-$B8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="35" t="e">
-        <f>ABS(#REF!-$B8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N8" s="35">
+      <c r="K8" s="103">
+        <f t="shared" si="1"/>
+        <v>9.6496705739730348E-3</v>
+      </c>
+      <c r="L8" s="88">
         <f>ABS(D8-$B8)</f>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="O8" s="36">
-        <f>ABS(E8-$B8)</f>
+      <c r="M8" s="88">
+        <f t="shared" si="2"/>
         <v>5.0000000000000044E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="N8" s="104">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="109">
         <v>7</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="92">
         <v>0.93</v>
       </c>
-      <c r="C9" s="42">
-        <v>0.91619829488512805</v>
+      <c r="C9" s="82">
+        <v>0.88798835205022097</v>
       </c>
       <c r="D9" s="42">
         <v>0.91</v>
@@ -1851,55 +2091,52 @@
       <c r="E9" s="42">
         <v>0.91</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="83">
         <v>0.72</v>
       </c>
-      <c r="G9" s="46">
-        <f>ABS(C9-$B9)/$B9</f>
-        <v>1.4840543134270965E-2</v>
-      </c>
-      <c r="H9" s="27">
-        <f>ABS(D9-$B9)/$B9</f>
+      <c r="G9" s="97">
+        <f t="shared" si="4"/>
+        <v>4.5173814999762446E-2</v>
+      </c>
+      <c r="H9" s="87">
+        <f t="shared" si="4"/>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="87">
         <f>ABS(E9-$B9)/$B9</f>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="J9" s="27">
-        <f>ABS(F9-$B9)/$B9</f>
+      <c r="J9" s="72">
+        <f t="shared" si="5"/>
         <v>0.2258064516129033</v>
       </c>
-      <c r="K9" s="34" t="e">
-        <f>ABS(#REF!-$B9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="35" t="e">
-        <f>ABS(#REF!-$B9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="35" t="e">
-        <f>ABS(#REF!-$B9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" s="35">
+      <c r="K9" s="103">
+        <f t="shared" si="1"/>
+        <v>4.2011647949779074E-2</v>
+      </c>
+      <c r="L9" s="88">
         <f>ABS(D9-$B9)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="O9" s="36">
-        <f>ABS(E9-$B9)</f>
+      <c r="M9" s="88">
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="N9" s="104">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="109">
         <v>8</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="92">
         <v>0.9</v>
       </c>
-      <c r="C10" s="42">
-        <v>0.83130570635774104</v>
+      <c r="C10" s="82">
+        <v>0.80779147004682295</v>
       </c>
       <c r="D10" s="42">
         <v>0.93</v>
@@ -1907,55 +2144,52 @@
       <c r="E10" s="42">
         <v>0.93</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="83">
         <v>0.63</v>
       </c>
-      <c r="G10" s="46">
-        <f>ABS(C10-$B10)/$B10</f>
-        <v>7.6326992935843316E-2</v>
-      </c>
-      <c r="H10" s="27">
-        <f>ABS(D10-$B10)/$B10</f>
+      <c r="G10" s="97">
+        <f t="shared" si="4"/>
+        <v>0.10245392217019675</v>
+      </c>
+      <c r="H10" s="87">
+        <f t="shared" si="4"/>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="87">
         <f>ABS(E10-$B10)/$B10</f>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="J10" s="27">
-        <f>ABS(F10-$B10)/$B10</f>
+      <c r="J10" s="72">
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="K10" s="34" t="e">
-        <f>ABS(#REF!-$B10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" s="35" t="e">
-        <f>ABS(#REF!-$B10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="35" t="e">
-        <f>ABS(#REF!-$B10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N10" s="35">
+      <c r="K10" s="103">
+        <f t="shared" si="1"/>
+        <v>9.2208529953177076E-2</v>
+      </c>
+      <c r="L10" s="88">
         <f>ABS(D10-$B10)</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="O10" s="36">
-        <f>ABS(E10-$B10)</f>
+      <c r="M10" s="88">
+        <f t="shared" si="2"/>
         <v>3.0000000000000027E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="N10" s="104">
+        <f t="shared" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="109">
         <v>9</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="92">
         <v>0.69</v>
       </c>
-      <c r="C11" s="42">
-        <v>0.79903246630556102</v>
+      <c r="C11" s="82">
+        <v>0.74620173595697303</v>
       </c>
       <c r="D11" s="42">
         <v>0.9</v>
@@ -1963,159 +2197,184 @@
       <c r="E11" s="42">
         <v>0.45</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="83">
         <v>0.37</v>
       </c>
-      <c r="G11" s="46">
-        <f>ABS(C11-$B11)/$B11</f>
-        <v>0.1580180671095088</v>
-      </c>
-      <c r="H11" s="27">
-        <f>ABS(D11-$B11)/$B11</f>
+      <c r="G11" s="97">
+        <f t="shared" si="4"/>
+        <v>8.1451791241989993E-2</v>
+      </c>
+      <c r="H11" s="87">
+        <f t="shared" si="4"/>
         <v>0.30434782608695665</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="87">
         <f>ABS(E11-$B11)/$B11</f>
         <v>0.34782608695652167</v>
       </c>
-      <c r="J11" s="27">
-        <f>ABS(F11-$B11)/$B11</f>
+      <c r="J11" s="72">
+        <f t="shared" si="5"/>
         <v>0.46376811594202894</v>
       </c>
-      <c r="K11" s="34" t="e">
-        <f>ABS(#REF!-$B11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="35" t="e">
-        <f>ABS(#REF!-$B11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="35" t="e">
-        <f>ABS(#REF!-$B11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N11" s="35">
+      <c r="K11" s="103">
+        <f t="shared" si="1"/>
+        <v>5.6201735956973087E-2</v>
+      </c>
+      <c r="L11" s="88">
         <f>ABS(D11-$B11)</f>
         <v>0.21000000000000008</v>
       </c>
-      <c r="O11" s="36">
-        <f>ABS(E11-$B11)</f>
+      <c r="M11" s="88">
+        <f t="shared" si="2"/>
         <v>0.23999999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="N11" s="104">
+        <f t="shared" si="3"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="120">
         <v>10</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="93">
         <v>0.75</v>
       </c>
-      <c r="C12" s="59">
-        <v>0.80967732039209495</v>
-      </c>
-      <c r="D12" s="59">
+      <c r="C12" s="84">
+        <v>0.77446626981036204</v>
+      </c>
+      <c r="D12" s="85">
         <v>0.93</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="85">
         <v>0.89</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="86">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G12" s="46">
-        <f>ABS(C12-$B12)/$B12</f>
-        <v>7.9569760522793256E-2</v>
-      </c>
-      <c r="H12" s="27">
-        <f>ABS(D12-$B12)/$B12</f>
+      <c r="G12" s="98">
+        <f t="shared" si="4"/>
+        <v>3.2621693080482718E-2</v>
+      </c>
+      <c r="H12" s="99">
+        <f t="shared" si="4"/>
         <v>0.24000000000000007</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="99">
         <f>ABS(E12-$B12)/$B12</f>
         <v>0.18666666666666668</v>
       </c>
-      <c r="J12" s="27">
-        <f>ABS(F12-$B12)/$B12</f>
+      <c r="J12" s="71">
+        <f t="shared" si="5"/>
         <v>0.26666666666666661</v>
       </c>
-      <c r="K12" s="37" t="e">
-        <f>ABS(#REF!-$B12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="38" t="e">
-        <f>ABS(#REF!-$B12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" s="38" t="e">
-        <f>ABS(#REF!-$B12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N12" s="38">
+      <c r="K12" s="105">
+        <f t="shared" si="1"/>
+        <v>2.446626981036204E-2</v>
+      </c>
+      <c r="L12" s="106">
         <f>ABS(D12-$B12)</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="O12" s="39">
-        <f>ABS(E12-$B12)</f>
+      <c r="M12" s="106">
+        <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="N12" s="107">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="112"/>
+      <c r="B13" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="114">
         <f>CORREL($B3:$B12,C3:C12)</f>
-        <v>0.9462331060024578</v>
-      </c>
-      <c r="D13">
+        <v>0.96282162281979999</v>
+      </c>
+      <c r="D13" s="114">
         <f>CORREL($B3:$B12,D3:D12)</f>
         <v>0.82106328793161798</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="114">
         <f>CORREL($B3:$B12,E3:E12)</f>
         <v>0.69009310865164819</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="115">
         <f>CORREL($B3:$B12,F3:F12)</f>
         <v>0.63284795454243703</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="116">
         <f>AVERAGE(G3:G12)</f>
-        <v>6.75111849287129E-2</v>
-      </c>
-      <c r="H13" s="30">
-        <f t="shared" ref="H13:O13" si="0">AVERAGE(H3:H12)</f>
+        <v>3.7274024625074245E-2</v>
+      </c>
+      <c r="H13" s="117">
+        <f t="shared" ref="H13:N13" si="6">AVERAGE(H3:H12)</f>
         <v>0.14445168920287388</v>
       </c>
-      <c r="I13" s="30">
-        <f t="shared" si="0"/>
+      <c r="I13" s="117">
+        <f t="shared" si="6"/>
         <v>0.14792850037912567</v>
       </c>
-      <c r="J13" s="30">
-        <f t="shared" si="0"/>
+      <c r="J13" s="117">
+        <f t="shared" si="6"/>
         <v>0.24487271062953089</v>
       </c>
-      <c r="K13" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N13" s="40">
-        <f t="shared" si="0"/>
+      <c r="K13" s="118">
+        <f t="shared" si="6"/>
+        <v>3.0121337396545038E-2</v>
+      </c>
+      <c r="L13" s="118">
+        <f t="shared" si="6"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O13" s="40">
-        <f t="shared" si="0"/>
+      <c r="M13" s="118">
+        <f t="shared" si="6"/>
         <v>0.10555555555555557</v>
       </c>
+      <c r="N13" s="119">
+        <f t="shared" si="6"/>
+        <v>0.187</v>
+      </c>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="15"/>
@@ -2127,22 +2386,10 @@
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K3:O12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:J12">
+  <conditionalFormatting sqref="G3:K12">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2154,8 +2401,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:O12">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="K3:N12">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2166,8 +2413,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:O12">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="G3:N12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:N12">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2597,10 +2856,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="7">
@@ -2616,8 +2875,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="7">
         <v>0.85</v>
       </c>
@@ -2907,28 +3166,28 @@
       <c r="C1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
       <c r="J1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="70"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="67"/>
       <c r="Q1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="70"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="67"/>
     </row>
     <row r="2" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -3018,51 +3277,51 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J3" s="46">
-        <f>ABS(C3-$B3)/$B3</f>
+        <f t="shared" ref="J3:J12" si="0">ABS(C3-$B3)/$B3</f>
         <v>3.5661284547020812E-2</v>
       </c>
       <c r="K3" s="46">
-        <f>ABS(D3-$B3)/$B3</f>
+        <f t="shared" ref="K3:K12" si="1">ABS(D3-$B3)/$B3</f>
         <v>9.1558628816039669E-2</v>
       </c>
       <c r="L3" s="27">
-        <f>ABS(E3-$B3)/$B3</f>
+        <f t="shared" ref="L3:L12" si="2">ABS(E3-$B3)/$B3</f>
         <v>0.17248098016277083</v>
       </c>
       <c r="M3" s="27">
-        <f>ABS(F3-$B3)/$B3</f>
+        <f t="shared" ref="M3:M12" si="3">ABS(F3-$B3)/$B3</f>
         <v>0.17248098016277083</v>
       </c>
       <c r="N3" s="27">
-        <f t="shared" ref="N3:P6" si="0">ABS(G3-$B3)/$B3</f>
+        <f t="shared" ref="N3:P6" si="4">ABS(G3-$B3)/$B3</f>
         <v>0.25</v>
       </c>
       <c r="O3" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666682</v>
       </c>
       <c r="P3" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666682</v>
       </c>
       <c r="Q3" s="31">
-        <f>ABS(C3-$B3)</f>
+        <f t="shared" ref="Q3:Q12" si="5">ABS(C3-$B3)</f>
         <v>1.7117416582569989E-2</v>
       </c>
       <c r="R3" s="32">
-        <f>ABS(E3-$B3)</f>
+        <f t="shared" ref="R3:R12" si="6">ABS(E3-$B3)</f>
         <v>8.2790870478129996E-2</v>
       </c>
       <c r="S3" s="32">
-        <f>ABS(F3-$B3)</f>
+        <f t="shared" ref="S3:S12" si="7">ABS(F3-$B3)</f>
         <v>8.2790870478129996E-2</v>
       </c>
       <c r="T3" s="32">
-        <f t="shared" ref="T3:U6" si="1">ABS(G3-$B3)</f>
+        <f t="shared" ref="T3:U6" si="8">ABS(G3-$B3)</f>
         <v>0.12</v>
       </c>
       <c r="U3" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
@@ -3095,51 +3354,51 @@
         <v>0.48</v>
       </c>
       <c r="J4" s="46">
-        <f>ABS(C4-$B4)/$B4</f>
+        <f t="shared" si="0"/>
         <v>0.11325372270488819</v>
       </c>
       <c r="K4" s="46">
-        <f>ABS(D4-$B4)/$B4</f>
+        <f t="shared" si="1"/>
         <v>5.4034447218881544E-2</v>
       </c>
       <c r="L4" s="27">
-        <f>ABS(E4-$B4)/$B4</f>
+        <f t="shared" si="2"/>
         <v>8.8746048876480271E-2</v>
       </c>
       <c r="M4" s="27">
-        <f>ABS(F4-$B4)/$B4</f>
+        <f t="shared" si="3"/>
         <v>8.8746048876480271E-2</v>
       </c>
       <c r="N4" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.6315789473684233E-2</v>
       </c>
       <c r="O4" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.47368421052631576</v>
       </c>
       <c r="P4" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.36842105263157898</v>
       </c>
       <c r="Q4" s="34">
-        <f>ABS(C4-$B4)</f>
+        <f t="shared" si="5"/>
         <v>8.6072829255715022E-2</v>
       </c>
       <c r="R4" s="35">
-        <f>ABS(E4-$B4)</f>
+        <f t="shared" si="6"/>
         <v>6.744699714612501E-2</v>
       </c>
       <c r="S4" s="35">
-        <f>ABS(F4-$B4)</f>
+        <f t="shared" si="7"/>
         <v>6.744699714612501E-2</v>
       </c>
       <c r="T4" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="U4" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.36</v>
       </c>
     </row>
@@ -3172,51 +3431,51 @@
         <v>0.85</v>
       </c>
       <c r="J5" s="46">
-        <f>ABS(C5-$B5)/$B5</f>
+        <f t="shared" si="0"/>
         <v>3.7131982479814078E-2</v>
       </c>
       <c r="K5" s="46">
-        <f>ABS(D5-$B5)/$B5</f>
+        <f t="shared" si="1"/>
         <v>1.4087144282950992E-2</v>
       </c>
       <c r="L5" s="27">
-        <f>ABS(E5-$B5)/$B5</f>
+        <f t="shared" si="2"/>
         <v>6.1543004196151531E-3</v>
       </c>
       <c r="M5" s="27">
-        <f>ABS(F5-$B5)/$B5</f>
+        <f t="shared" si="3"/>
         <v>6.1543004196151531E-3</v>
       </c>
       <c r="N5" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.1739130434782507E-2</v>
       </c>
       <c r="O5" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0869565217391313E-2</v>
       </c>
       <c r="P5" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.6086956521739191E-2</v>
       </c>
       <c r="Q5" s="34">
-        <f>ABS(C5-$B5)</f>
+        <f t="shared" si="5"/>
         <v>3.4161423881428954E-2</v>
       </c>
       <c r="R5" s="35">
-        <f>ABS(E5-$B5)</f>
+        <f t="shared" si="6"/>
         <v>5.661956386045941E-3</v>
       </c>
       <c r="S5" s="35">
-        <f>ABS(F5-$B5)</f>
+        <f t="shared" si="7"/>
         <v>5.661956386045941E-3</v>
       </c>
       <c r="T5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="U5" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -3249,51 +3508,51 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="46">
-        <f>ABS(C6-$B6)/$B6</f>
+        <f t="shared" si="0"/>
         <v>4.878777947095829E-2</v>
       </c>
       <c r="K6" s="46">
-        <f>ABS(D6-$B6)/$B6</f>
+        <f t="shared" si="1"/>
         <v>0.13838354096499844</v>
       </c>
       <c r="L6" s="27">
-        <f>ABS(E6-$B6)/$B6</f>
+        <f t="shared" si="2"/>
         <v>8.3856675690046623E-2</v>
       </c>
       <c r="M6" s="27">
-        <f>ABS(F6-$B6)/$B6</f>
+        <f t="shared" si="3"/>
         <v>8.3856675690046623E-2</v>
       </c>
       <c r="N6" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.28333333333333344</v>
       </c>
       <c r="O6" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333368E-2</v>
       </c>
       <c r="P6" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="Q6" s="34">
-        <f>ABS(C6-$B6)</f>
+        <f t="shared" si="5"/>
         <v>2.9272667682574971E-2</v>
       </c>
       <c r="R6" s="35">
-        <f>ABS(E6-$B6)</f>
+        <f t="shared" si="6"/>
         <v>5.0314005414027974E-2</v>
       </c>
       <c r="S6" s="35">
-        <f>ABS(F6-$B6)</f>
+        <f t="shared" si="7"/>
         <v>5.0314005414027974E-2</v>
       </c>
       <c r="T6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.17000000000000004</v>
       </c>
       <c r="U6" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -3326,44 +3585,44 @@
         <v>0.53</v>
       </c>
       <c r="J7" s="46">
-        <f>ABS(C7-$B7)/$B7</f>
+        <f t="shared" si="0"/>
         <v>1.7527056862645763E-2</v>
       </c>
       <c r="K7" s="46">
-        <f>ABS(D7-$B7)/$B7</f>
+        <f t="shared" si="1"/>
         <v>6.4398849697407572E-3</v>
       </c>
       <c r="L7" s="27">
-        <f>ABS(E7-$B7)/$B7</f>
+        <f t="shared" si="2"/>
         <v>1.8934777813766561E-2</v>
       </c>
       <c r="M7" s="27">
-        <f>ABS(F7-$B7)/$B7</f>
+        <f t="shared" si="3"/>
         <v>1.8015970991880348E-2</v>
       </c>
       <c r="N7" s="27">
-        <f t="shared" ref="N7:N12" si="2">ABS(G7-$B7)/$B7</f>
+        <f t="shared" ref="N7:N12" si="9">ABS(G7-$B7)/$B7</f>
         <v>0.16049382716049368</v>
       </c>
       <c r="O7" s="27"/>
       <c r="P7" s="27">
-        <f t="shared" ref="P7:P12" si="3">ABS(I7-$B7)/$B7</f>
+        <f t="shared" ref="P7:P12" si="10">ABS(I7-$B7)/$B7</f>
         <v>0.34567901234567905</v>
       </c>
       <c r="Q7" s="34">
-        <f>ABS(C7-$B7)</f>
+        <f t="shared" si="5"/>
         <v>1.419691605874307E-2</v>
       </c>
       <c r="R7" s="35">
-        <f>ABS(E7-$B7)</f>
+        <f t="shared" si="6"/>
         <v>1.5337170029150915E-2</v>
       </c>
       <c r="S7" s="35">
-        <f>ABS(F7-$B7)</f>
+        <f t="shared" si="7"/>
         <v>1.4592936503423082E-2</v>
       </c>
       <c r="T7" s="35">
-        <f t="shared" ref="T7:T12" si="4">ABS(G7-$B7)</f>
+        <f t="shared" ref="T7:T12" si="11">ABS(G7-$B7)</f>
         <v>0.12999999999999989</v>
       </c>
       <c r="U7" s="36"/>
@@ -3397,23 +3656,23 @@
         <v>0.81</v>
       </c>
       <c r="J8" s="46">
-        <f>ABS(C8-$B8)/$B8</f>
+        <f t="shared" si="0"/>
         <v>8.5990562113089697E-2</v>
       </c>
       <c r="K8" s="46">
-        <f>ABS(D8-$B8)/$B8</f>
+        <f t="shared" si="1"/>
         <v>4.1852839332101217E-2</v>
       </c>
       <c r="L8" s="27">
-        <f>ABS(E8-$B8)/$B8</f>
+        <f t="shared" si="2"/>
         <v>1.3304461897543647E-2</v>
       </c>
       <c r="M8" s="27">
-        <f>ABS(F8-$B8)/$B8</f>
+        <f t="shared" si="3"/>
         <v>1.3304461897543647E-2</v>
       </c>
       <c r="N8" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.10344827586206894</v>
       </c>
       <c r="O8" s="27">
@@ -3421,23 +3680,23 @@
         <v>5.7471264367816147E-2</v>
       </c>
       <c r="P8" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.896551724137924E-2</v>
       </c>
       <c r="Q8" s="34">
-        <f>ABS(C8-$B8)</f>
+        <f t="shared" si="5"/>
         <v>7.4811789038388032E-2</v>
       </c>
       <c r="R8" s="35">
-        <f>ABS(E8-$B8)</f>
+        <f t="shared" si="6"/>
         <v>1.1574881850862972E-2</v>
       </c>
       <c r="S8" s="35">
-        <f>ABS(F8-$B8)</f>
+        <f t="shared" si="7"/>
         <v>1.1574881850862972E-2</v>
       </c>
       <c r="T8" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="U8" s="36">
@@ -3474,23 +3733,23 @@
         <v>0.72</v>
       </c>
       <c r="J9" s="46">
-        <f>ABS(C9-$B9)/$B9</f>
+        <f t="shared" si="0"/>
         <v>1.7083848303674192E-2</v>
       </c>
       <c r="K9" s="46">
-        <f>ABS(D9-$B9)/$B9</f>
+        <f t="shared" si="1"/>
         <v>1.4840543134270965E-2</v>
       </c>
       <c r="L9" s="27">
-        <f>ABS(E9-$B9)/$B9</f>
+        <f t="shared" si="2"/>
         <v>0.14368951964532903</v>
       </c>
       <c r="M9" s="27">
-        <f>ABS(F9-$B9)/$B9</f>
+        <f t="shared" si="3"/>
         <v>0.14368951964532903</v>
       </c>
       <c r="N9" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.1505376344086041E-2</v>
       </c>
       <c r="O9" s="27">
@@ -3498,23 +3757,23 @@
         <v>2.1505376344086041E-2</v>
       </c>
       <c r="P9" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.2258064516129033</v>
       </c>
       <c r="Q9" s="34">
-        <f>ABS(C9-$B9)</f>
+        <f t="shared" si="5"/>
         <v>1.5887978922417001E-2</v>
       </c>
       <c r="R9" s="35">
-        <f>ABS(E9-$B9)</f>
+        <f t="shared" si="6"/>
         <v>0.13363125327015601</v>
       </c>
       <c r="S9" s="35">
-        <f>ABS(F9-$B9)</f>
+        <f t="shared" si="7"/>
         <v>0.13363125327015601</v>
       </c>
       <c r="T9" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="U9" s="36">
@@ -3551,23 +3810,23 @@
         <v>0.63</v>
       </c>
       <c r="J10" s="46">
-        <f>ABS(C10-$B10)/$B10</f>
+        <f t="shared" si="0"/>
         <v>6.7920620592647848E-2</v>
       </c>
       <c r="K10" s="46">
-        <f>ABS(D10-$B10)/$B10</f>
+        <f t="shared" si="1"/>
         <v>7.6326992935843316E-2</v>
       </c>
       <c r="L10" s="27">
-        <f>ABS(E10-$B10)/$B10</f>
+        <f t="shared" si="2"/>
         <v>6.3757626880508941E-2</v>
       </c>
       <c r="M10" s="27">
-        <f>ABS(F10-$B10)/$B10</f>
+        <f t="shared" si="3"/>
         <v>6.3757626880508941E-2</v>
       </c>
       <c r="N10" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.3333333333333361E-2</v>
       </c>
       <c r="O10" s="27">
@@ -3575,23 +3834,23 @@
         <v>3.3333333333333361E-2</v>
       </c>
       <c r="P10" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
       <c r="Q10" s="34">
-        <f>ABS(C10-$B10)</f>
+        <f t="shared" si="5"/>
         <v>6.1128558533383059E-2</v>
       </c>
       <c r="R10" s="35">
-        <f>ABS(E10-$B10)</f>
+        <f t="shared" si="6"/>
         <v>5.7381864192458054E-2</v>
       </c>
       <c r="S10" s="35">
-        <f>ABS(F10-$B10)</f>
+        <f t="shared" si="7"/>
         <v>5.7381864192458054E-2</v>
       </c>
       <c r="T10" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="U10" s="36">
@@ -3628,23 +3887,23 @@
         <v>0.37</v>
       </c>
       <c r="J11" s="46">
-        <f>ABS(C11-$B11)/$B11</f>
+        <f t="shared" si="0"/>
         <v>8.8220770535381285E-2</v>
       </c>
       <c r="K11" s="46">
-        <f>ABS(D11-$B11)/$B11</f>
+        <f t="shared" si="1"/>
         <v>0.1580180671095088</v>
       </c>
       <c r="L11" s="27">
-        <f>ABS(E11-$B11)/$B11</f>
+        <f t="shared" si="2"/>
         <v>0.11025865019760731</v>
       </c>
       <c r="M11" s="27">
-        <f>ABS(F11-$B11)/$B11</f>
+        <f t="shared" si="3"/>
         <v>0.11025865019760731</v>
       </c>
       <c r="N11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.30434782608695665</v>
       </c>
       <c r="O11" s="27">
@@ -3652,23 +3911,23 @@
         <v>0.34782608695652167</v>
       </c>
       <c r="P11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.46376811594202894</v>
       </c>
       <c r="Q11" s="34">
-        <f>ABS(C11-$B11)</f>
+        <f t="shared" si="5"/>
         <v>6.0872331669413082E-2</v>
       </c>
       <c r="R11" s="35">
-        <f>ABS(E11-$B11)</f>
+        <f t="shared" si="6"/>
         <v>7.6078468636349039E-2</v>
       </c>
       <c r="S11" s="35">
-        <f>ABS(F11-$B11)</f>
+        <f t="shared" si="7"/>
         <v>7.6078468636349039E-2</v>
       </c>
       <c r="T11" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.21000000000000008</v>
       </c>
       <c r="U11" s="36">
@@ -3705,23 +3964,23 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J12" s="46">
-        <f>ABS(C12-$B12)/$B12</f>
+        <f t="shared" si="0"/>
         <v>0.21563776519577735</v>
       </c>
       <c r="K12" s="46">
-        <f>ABS(D12-$B12)/$B12</f>
+        <f t="shared" si="1"/>
         <v>7.9569760522793256E-2</v>
       </c>
       <c r="L12" s="27">
-        <f>ABS(E12-$B12)/$B12</f>
+        <f t="shared" si="2"/>
         <v>5.6525807532373422E-3</v>
       </c>
       <c r="M12" s="27">
-        <f>ABS(F12-$B12)/$B12</f>
+        <f t="shared" si="3"/>
         <v>0.22666666666666671</v>
       </c>
       <c r="N12" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.24000000000000007</v>
       </c>
       <c r="O12" s="27">
@@ -3729,23 +3988,23 @@
         <v>0.18666666666666668</v>
       </c>
       <c r="P12" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.26666666666666661</v>
       </c>
       <c r="Q12" s="37">
-        <f>ABS(C12-$B12)</f>
+        <f t="shared" si="5"/>
         <v>0.161728323896833</v>
       </c>
       <c r="R12" s="38">
-        <f>ABS(E12-$B12)</f>
+        <f t="shared" si="6"/>
         <v>4.2394355649280069E-3</v>
       </c>
       <c r="S12" s="38">
-        <f>ABS(F12-$B12)</f>
+        <f t="shared" si="7"/>
         <v>0.17000000000000004</v>
       </c>
       <c r="T12" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.18000000000000005</v>
       </c>
       <c r="U12" s="39">
@@ -3780,35 +4039,35 @@
         <v>9.2693090142844881E-2</v>
       </c>
       <c r="N13" s="30">
-        <f t="shared" ref="N13:U13" si="5">AVERAGE(N3:N12)</f>
+        <f t="shared" ref="N13:U13" si="12">AVERAGE(N3:N12)</f>
         <v>0.14445168920287388</v>
       </c>
       <c r="O13" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.14792850037912567</v>
       </c>
       <c r="P13" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.24487271062953089</v>
       </c>
       <c r="Q13" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5.5525023552146613E-2</v>
       </c>
       <c r="R13" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5.0445690296823401E-2</v>
       </c>
       <c r="S13" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6.6947323387757815E-2</v>
       </c>
       <c r="T13" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="U13" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.10555555555555557</v>
       </c>
     </row>
@@ -3837,11 +4096,11 @@
         <v>0.81540954065935134</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:I14" si="6">CORREL(G3:G12,H3:H12)</f>
+        <f t="shared" ref="H14:I14" si="13">CORREL(G3:G12,H3:H12)</f>
         <v>0.69025816880402835</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.79934712334918734</v>
       </c>
     </row>
@@ -3943,12 +4202,12 @@
       <c r="C1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:17" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>

--- a/OFR数据统计-20231007.xlsx
+++ b/OFR数据统计-20231007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stone\python\coronary_ffr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41C5C9-76DF-42F5-A2E6-0E4B46F51A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223837A2-F255-4728-89B8-DDD30FB3AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7152" yWindow="1704" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3 (2)" sheetId="7" r:id="rId1"/>
@@ -1187,170 +1187,170 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1696,135 +1696,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="110"/>
+      <c r="A1" s="102"/>
       <c r="B1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="73" t="s">
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="73" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="115"/>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="70" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="108">
+      <c r="A3" s="100">
         <v>1</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="83">
         <v>0.48</v>
       </c>
-      <c r="C3" s="79">
-        <v>0.47130576100425797</v>
-      </c>
-      <c r="D3" s="80">
+      <c r="C3" s="71">
+        <v>0.48762586176420802</v>
+      </c>
+      <c r="D3" s="72">
         <v>0.6</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="72">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="73">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G3" s="94">
-        <f t="shared" ref="G3:J6" si="0">ABS(C3-$B3)/$B3</f>
-        <v>1.8112997907795855E-2</v>
-      </c>
-      <c r="H3" s="95">
-        <f t="shared" si="0"/>
+      <c r="G3" s="86">
+        <f>ABS(C3-$B3)/$B3</f>
+        <v>1.5887212008766756E-2</v>
+      </c>
+      <c r="H3" s="87">
+        <f t="shared" ref="H3:J6" si="0">ABS(D3-$B3)/$B3</f>
         <v>0.25</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="87">
         <f t="shared" si="0"/>
         <v>0.16666666666666682</v>
       </c>
-      <c r="J3" s="96">
+      <c r="J3" s="88">
         <f t="shared" si="0"/>
         <v>0.16666666666666682</v>
       </c>
-      <c r="K3" s="100">
+      <c r="K3" s="92">
         <f>ABS(C3-$B3)</f>
-        <v>8.6942389957420096E-3</v>
-      </c>
-      <c r="L3" s="101">
+        <v>7.6258617642080417E-3</v>
+      </c>
+      <c r="L3" s="93">
         <f>ABS(D3-$B3)</f>
         <v>0.12</v>
       </c>
-      <c r="M3" s="101">
+      <c r="M3" s="93">
         <f>ABS(E3-$B3)</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="N3" s="102">
+      <c r="N3" s="94">
         <f>ABS(F3-$B3)</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109">
+      <c r="A4" s="101">
         <v>2</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="84">
         <v>0.76</v>
       </c>
-      <c r="C4" s="82">
-        <v>0.76933470075168298</v>
+      <c r="C4" s="74">
+        <v>0.76519391801125303</v>
       </c>
       <c r="D4" s="42">
         <v>0.74</v>
@@ -1832,52 +1832,52 @@
       <c r="E4" s="42">
         <v>0.4</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="75">
         <v>0.48</v>
       </c>
-      <c r="G4" s="97">
-        <f t="shared" si="0"/>
-        <v>1.2282500989056536E-2</v>
-      </c>
-      <c r="H4" s="87">
+      <c r="G4" s="89">
+        <f>ABS(C4-$B4)/$B4</f>
+        <v>6.83410264638555E-3</v>
+      </c>
+      <c r="H4" s="79">
         <f t="shared" si="0"/>
         <v>2.6315789473684233E-2</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="79">
         <f t="shared" si="0"/>
         <v>0.47368421052631576</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="67">
         <f t="shared" si="0"/>
         <v>0.36842105263157898</v>
       </c>
-      <c r="K4" s="103">
-        <f t="shared" ref="K4:K12" si="1">ABS(C4-$B4)</f>
-        <v>9.3347007516829672E-3</v>
-      </c>
-      <c r="L4" s="88">
-        <f>ABS(D4-$B4)</f>
+      <c r="K4" s="95">
+        <f>ABS(C4-$B4)</f>
+        <v>5.1939180112530181E-3</v>
+      </c>
+      <c r="L4" s="80">
+        <f t="shared" ref="L4:L12" si="1">ABS(D4-$B4)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="80">
         <f t="shared" ref="M4:M12" si="2">ABS(E4-$B4)</f>
         <v>0.36</v>
       </c>
-      <c r="N4" s="104">
+      <c r="N4" s="96">
         <f t="shared" ref="N4:N12" si="3">ABS(F4-$B4)</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="109">
+      <c r="A5" s="101">
         <v>3</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="84">
         <v>0.92</v>
       </c>
-      <c r="C5" s="82">
-        <v>0.89671050892967596</v>
+      <c r="C5" s="74">
+        <v>0.90453733599814501</v>
       </c>
       <c r="D5" s="42">
         <v>0.94</v>
@@ -1885,52 +1885,52 @@
       <c r="E5" s="42">
         <v>0.91</v>
       </c>
-      <c r="F5" s="83">
+      <c r="F5" s="75">
         <v>0.85</v>
       </c>
-      <c r="G5" s="97">
-        <f t="shared" si="0"/>
-        <v>2.5314664206873994E-2</v>
-      </c>
-      <c r="H5" s="87">
+      <c r="G5" s="89">
+        <f>ABS(C5-$B5)/$B5</f>
+        <v>1.6807243480277206E-2</v>
+      </c>
+      <c r="H5" s="79">
         <f t="shared" si="0"/>
         <v>2.1739130434782507E-2</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5" s="79">
         <f t="shared" si="0"/>
         <v>1.0869565217391313E-2</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="67">
         <f t="shared" si="0"/>
         <v>7.6086956521739191E-2</v>
       </c>
-      <c r="K5" s="103">
+      <c r="K5" s="95">
+        <f>ABS(C5-$B5)</f>
+        <v>1.5462664001855031E-2</v>
+      </c>
+      <c r="L5" s="80">
         <f t="shared" si="1"/>
-        <v>2.3289491070324075E-2</v>
-      </c>
-      <c r="L5" s="88">
-        <f>ABS(D5-$B5)</f>
         <v>1.9999999999999907E-2</v>
       </c>
-      <c r="M5" s="88">
+      <c r="M5" s="80">
         <f t="shared" si="2"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="N5" s="104">
+      <c r="N5" s="96">
         <f t="shared" si="3"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="109">
+      <c r="A6" s="101">
         <v>4</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="84">
         <v>0.6</v>
       </c>
-      <c r="C6" s="82">
-        <v>0.601357465671846</v>
+      <c r="C6" s="74">
+        <v>0.65513851684506796</v>
       </c>
       <c r="D6" s="42">
         <v>0.77</v>
@@ -1938,52 +1938,52 @@
       <c r="E6" s="42">
         <v>0.62</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F6" s="75">
         <v>0.5</v>
       </c>
-      <c r="G6" s="97">
-        <f t="shared" si="0"/>
-        <v>2.2624427864100425E-3</v>
-      </c>
-      <c r="H6" s="87">
+      <c r="G6" s="89">
+        <f>ABS(C6-$B6)/$B6</f>
+        <v>9.1897528075113311E-2</v>
+      </c>
+      <c r="H6" s="79">
         <f t="shared" si="0"/>
         <v>0.28333333333333344</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="79">
         <f t="shared" si="0"/>
         <v>3.3333333333333368E-2</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="67">
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="K6" s="103">
+      <c r="K6" s="95">
+        <f>ABS(C6-$B6)</f>
+        <v>5.5138516845067986E-2</v>
+      </c>
+      <c r="L6" s="80">
         <f t="shared" si="1"/>
-        <v>1.3574656718460254E-3</v>
-      </c>
-      <c r="L6" s="88">
-        <f>ABS(D6-$B6)</f>
         <v>0.17000000000000004</v>
       </c>
-      <c r="M6" s="88">
+      <c r="M6" s="80">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="N6" s="104">
+      <c r="N6" s="96">
         <f t="shared" si="3"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="101">
         <v>5</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="84">
         <v>0.81</v>
       </c>
-      <c r="C7" s="82">
-        <v>0.77600037676840905</v>
+      <c r="C7" s="74">
+        <v>0.75431926845095698</v>
       </c>
       <c r="D7" s="42">
         <v>0.94</v>
@@ -1991,46 +1991,46 @@
       <c r="E7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="83">
+      <c r="F7" s="75">
         <v>0.53</v>
       </c>
-      <c r="G7" s="97">
-        <f t="shared" ref="G7:H12" si="4">ABS(C7-$B7)/$B7</f>
-        <v>4.1974843495791357E-2</v>
-      </c>
-      <c r="H7" s="87">
-        <f t="shared" si="4"/>
+      <c r="G7" s="89">
+        <f>ABS(C7-$B7)/$B7</f>
+        <v>6.8741643887707496E-2</v>
+      </c>
+      <c r="H7" s="79">
+        <f t="shared" ref="H7:H12" si="4">ABS(D7-$B7)/$B7</f>
         <v>0.16049382716049368</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="72">
+      <c r="I7" s="79"/>
+      <c r="J7" s="67">
         <f t="shared" ref="J7:J12" si="5">ABS(F7-$B7)/$B7</f>
         <v>0.34567901234567905</v>
       </c>
-      <c r="K7" s="103">
+      <c r="K7" s="95">
+        <f>ABS(C7-$B7)</f>
+        <v>5.5680731549043072E-2</v>
+      </c>
+      <c r="L7" s="80">
         <f t="shared" si="1"/>
-        <v>3.3999623231591003E-2</v>
-      </c>
-      <c r="L7" s="88">
-        <f>ABS(D7-$B7)</f>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="104">
+      <c r="M7" s="80"/>
+      <c r="N7" s="96">
         <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="109">
+      <c r="A8" s="101">
         <v>6</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="84">
         <v>0.87</v>
       </c>
-      <c r="C8" s="82">
-        <v>0.87964967057397303</v>
+      <c r="C8" s="74">
+        <v>0.86300231350085699</v>
       </c>
       <c r="D8" s="42">
         <v>0.96</v>
@@ -2038,52 +2038,52 @@
       <c r="E8" s="42">
         <v>0.92</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="75">
         <v>0.81</v>
       </c>
-      <c r="G8" s="97">
-        <f t="shared" si="4"/>
-        <v>1.1091575372382799E-2</v>
-      </c>
-      <c r="H8" s="87">
+      <c r="G8" s="89">
+        <f>ABS(C8-$B8)/$B8</f>
+        <v>8.0433178151069051E-3</v>
+      </c>
+      <c r="H8" s="79">
         <f t="shared" si="4"/>
         <v>0.10344827586206894</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="79">
         <f>ABS(E8-$B8)/$B8</f>
         <v>5.7471264367816147E-2</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="67">
         <f t="shared" si="5"/>
         <v>6.896551724137924E-2</v>
       </c>
-      <c r="K8" s="103">
+      <c r="K8" s="95">
+        <f>ABS(C8-$B8)</f>
+        <v>6.9976864991430077E-3</v>
+      </c>
+      <c r="L8" s="80">
         <f t="shared" si="1"/>
-        <v>9.6496705739730348E-3</v>
-      </c>
-      <c r="L8" s="88">
-        <f>ABS(D8-$B8)</f>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="80">
         <f t="shared" si="2"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N8" s="104">
+      <c r="N8" s="96">
         <f t="shared" si="3"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="109">
+      <c r="A9" s="101">
         <v>7</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="84">
         <v>0.93</v>
       </c>
-      <c r="C9" s="82">
-        <v>0.88798835205022097</v>
+      <c r="C9" s="74">
+        <v>0.89037216007480102</v>
       </c>
       <c r="D9" s="42">
         <v>0.91</v>
@@ -2091,52 +2091,52 @@
       <c r="E9" s="42">
         <v>0.91</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="75">
         <v>0.72</v>
       </c>
-      <c r="G9" s="97">
-        <f t="shared" si="4"/>
-        <v>4.5173814999762446E-2</v>
-      </c>
-      <c r="H9" s="87">
+      <c r="G9" s="89">
+        <f>ABS(C9-$B9)/$B9</f>
+        <v>4.2610580564730133E-2</v>
+      </c>
+      <c r="H9" s="79">
         <f t="shared" si="4"/>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="79">
         <f>ABS(E9-$B9)/$B9</f>
         <v>2.1505376344086041E-2</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="67">
         <f t="shared" si="5"/>
         <v>0.2258064516129033</v>
       </c>
-      <c r="K9" s="103">
+      <c r="K9" s="95">
+        <f>ABS(C9-$B9)</f>
+        <v>3.9627839925199027E-2</v>
+      </c>
+      <c r="L9" s="80">
         <f t="shared" si="1"/>
-        <v>4.2011647949779074E-2</v>
-      </c>
-      <c r="L9" s="88">
-        <f>ABS(D9-$B9)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="80">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="N9" s="104">
+      <c r="N9" s="96">
         <f t="shared" si="3"/>
         <v>0.21000000000000008</v>
       </c>
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="109">
+      <c r="A10" s="101">
         <v>8</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="84">
         <v>0.9</v>
       </c>
-      <c r="C10" s="82">
-        <v>0.80779147004682295</v>
+      <c r="C10" s="74">
+        <v>0.79927682659634702</v>
       </c>
       <c r="D10" s="42">
         <v>0.93</v>
@@ -2144,52 +2144,52 @@
       <c r="E10" s="42">
         <v>0.93</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="75">
         <v>0.63</v>
       </c>
-      <c r="G10" s="97">
-        <f t="shared" si="4"/>
-        <v>0.10245392217019675</v>
-      </c>
-      <c r="H10" s="87">
+      <c r="G10" s="89">
+        <f>ABS(C10-$B10)/$B10</f>
+        <v>0.11191463711517</v>
+      </c>
+      <c r="H10" s="79">
         <f t="shared" si="4"/>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="79">
         <f>ABS(E10-$B10)/$B10</f>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="67">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="K10" s="103">
+      <c r="K10" s="95">
+        <f>ABS(C10-$B10)</f>
+        <v>0.100723173403653</v>
+      </c>
+      <c r="L10" s="80">
         <f t="shared" si="1"/>
-        <v>9.2208529953177076E-2</v>
-      </c>
-      <c r="L10" s="88">
-        <f>ABS(D10-$B10)</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="80">
         <f t="shared" si="2"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="N10" s="104">
+      <c r="N10" s="96">
         <f t="shared" si="3"/>
         <v>0.27</v>
       </c>
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="109">
+      <c r="A11" s="101">
         <v>9</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="84">
         <v>0.69</v>
       </c>
-      <c r="C11" s="82">
-        <v>0.74620173595697303</v>
+      <c r="C11" s="74">
+        <v>0.720075791878941</v>
       </c>
       <c r="D11" s="42">
         <v>0.9</v>
@@ -2197,146 +2197,146 @@
       <c r="E11" s="42">
         <v>0.45</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="75">
         <v>0.37</v>
       </c>
-      <c r="G11" s="97">
-        <f t="shared" si="4"/>
-        <v>8.1451791241989993E-2</v>
-      </c>
-      <c r="H11" s="87">
+      <c r="G11" s="89">
+        <f>ABS(C11-$B11)/$B11</f>
+        <v>4.3588104172378336E-2</v>
+      </c>
+      <c r="H11" s="79">
         <f t="shared" si="4"/>
         <v>0.30434782608695665</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="79">
         <f>ABS(E11-$B11)/$B11</f>
         <v>0.34782608695652167</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="67">
         <f t="shared" si="5"/>
         <v>0.46376811594202894</v>
       </c>
-      <c r="K11" s="103">
+      <c r="K11" s="95">
+        <f>ABS(C11-$B11)</f>
+        <v>3.0075791878941049E-2</v>
+      </c>
+      <c r="L11" s="80">
         <f t="shared" si="1"/>
-        <v>5.6201735956973087E-2</v>
-      </c>
-      <c r="L11" s="88">
-        <f>ABS(D11-$B11)</f>
         <v>0.21000000000000008</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="80">
         <f t="shared" si="2"/>
         <v>0.23999999999999994</v>
       </c>
-      <c r="N11" s="104">
+      <c r="N11" s="96">
         <f t="shared" si="3"/>
         <v>0.31999999999999995</v>
       </c>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="120">
+      <c r="A12" s="112">
         <v>10</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="85">
         <v>0.75</v>
       </c>
-      <c r="C12" s="84">
-        <v>0.77446626981036204</v>
-      </c>
-      <c r="D12" s="85">
+      <c r="C12" s="76">
+        <v>0.820838854290728</v>
+      </c>
+      <c r="D12" s="77">
         <v>0.93</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="77">
         <v>0.89</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="78">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G12" s="98">
-        <f t="shared" si="4"/>
-        <v>3.2621693080482718E-2</v>
-      </c>
-      <c r="H12" s="99">
+      <c r="G12" s="90">
+        <f>ABS(C12-$B12)/$B12</f>
+        <v>9.4451805720970672E-2</v>
+      </c>
+      <c r="H12" s="91">
         <f t="shared" si="4"/>
         <v>0.24000000000000007</v>
       </c>
-      <c r="I12" s="99">
+      <c r="I12" s="91">
         <f>ABS(E12-$B12)/$B12</f>
         <v>0.18666666666666668</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="66">
         <f t="shared" si="5"/>
         <v>0.26666666666666661</v>
       </c>
-      <c r="K12" s="105">
+      <c r="K12" s="97">
+        <f>ABS(C12-$B12)</f>
+        <v>7.0838854290728004E-2</v>
+      </c>
+      <c r="L12" s="98">
         <f t="shared" si="1"/>
-        <v>2.446626981036204E-2</v>
-      </c>
-      <c r="L12" s="106">
-        <f>ABS(D12-$B12)</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="M12" s="106">
+      <c r="M12" s="98">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="N12" s="107">
+      <c r="N12" s="99">
         <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="113" t="s">
+      <c r="A13" s="104"/>
+      <c r="B13" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="114">
+      <c r="C13" s="106">
         <f>CORREL($B3:$B12,C3:C12)</f>
-        <v>0.96282162281979999</v>
-      </c>
-      <c r="D13" s="114">
+        <v>0.94225484658844005</v>
+      </c>
+      <c r="D13" s="106">
         <f>CORREL($B3:$B12,D3:D12)</f>
         <v>0.82106328793161798</v>
       </c>
-      <c r="E13" s="114">
+      <c r="E13" s="106">
         <f>CORREL($B3:$B12,E3:E12)</f>
         <v>0.69009310865164819</v>
       </c>
-      <c r="F13" s="115">
+      <c r="F13" s="107">
         <f>CORREL($B3:$B12,F3:F12)</f>
         <v>0.63284795454243703</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="108">
         <f>AVERAGE(G3:G12)</f>
-        <v>3.7274024625074245E-2</v>
-      </c>
-      <c r="H13" s="117">
+        <v>5.0077617548660636E-2</v>
+      </c>
+      <c r="H13" s="109">
         <f t="shared" ref="H13:N13" si="6">AVERAGE(H3:H12)</f>
         <v>0.14445168920287388</v>
       </c>
-      <c r="I13" s="117">
+      <c r="I13" s="109">
         <f t="shared" si="6"/>
         <v>0.14792850037912567</v>
       </c>
-      <c r="J13" s="117">
+      <c r="J13" s="109">
         <f t="shared" si="6"/>
         <v>0.24487271062953089</v>
       </c>
-      <c r="K13" s="118">
+      <c r="K13" s="110">
         <f t="shared" si="6"/>
-        <v>3.0121337396545038E-2</v>
-      </c>
-      <c r="L13" s="118">
+        <v>3.8736503816909122E-2</v>
+      </c>
+      <c r="L13" s="110">
         <f t="shared" si="6"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="M13" s="118">
+      <c r="M13" s="110">
         <f t="shared" si="6"/>
         <v>0.10555555555555557</v>
       </c>
-      <c r="N13" s="119">
+      <c r="N13" s="111">
         <f t="shared" si="6"/>
         <v>0.187</v>
       </c>
@@ -2856,10 +2856,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="116" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="7">
@@ -2875,8 +2875,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="7">
         <v>0.85</v>
       </c>
@@ -3163,31 +3163,31 @@
       <c r="B1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="68" t="s">
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="67"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="120"/>
     </row>
     <row r="2" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -4199,15 +4199,15 @@
       <c r="B1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:17" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
